--- a/capiq_data/in_process_data/IQ8057672.xlsx
+++ b/capiq_data/in_process_data/IQ8057672.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE2B0F3-2269-47DB-966D-D78CA15F33DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB36D38-7501-48C3-8307-11FFCFCFEE7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"67ac48b1-49c3-4230-8695-e1d7c8df26b4"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"9d317a23-e7df-4958-a74f-6133f2475c27"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$73</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$73</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$73</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$73</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$73</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$73</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$73</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$73</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$73</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$73</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$73</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$73</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$73</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$73</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$73</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$73</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$73</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$73</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$73</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$73</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$73</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$73</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$73</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$73</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$73</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$73</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,99 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,117 +826,117 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37711</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>8.9160000000000004</v>
+        <v>-3.6890000000000001</v>
       </c>
       <c r="D2">
-        <v>75.111000000000004</v>
+        <v>8.7309999999999999</v>
       </c>
       <c r="E2">
-        <v>15.637</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>51.088000000000001</v>
+        <v>5.093</v>
       </c>
       <c r="G2">
-        <v>101.107</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2249.8200000000002</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>35.241999999999997</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1246.9179999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-16.010000000000002</v>
       </c>
       <c r="N2">
-        <v>41.316000000000003</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1310.749</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1260.008</v>
+        <v>249.78399999999999</v>
       </c>
       <c r="Q2">
-        <v>24.952000000000002</v>
+        <v>-5.69</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37711</v>
       </c>
       <c r="S2">
-        <v>2125</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>939.07100000000003</v>
+        <v>72.387</v>
       </c>
       <c r="U2">
-        <v>46.75</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>30.085000000000001</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="W2">
-        <v>-8.7579999999999991</v>
+        <v>-0.68400000000000005</v>
       </c>
       <c r="X2">
-        <v>44.078000000000003</v>
+        <v>10.922000000000001</v>
       </c>
       <c r="Y2">
-        <v>7.016</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.042</v>
+        <v>-2E-3</v>
       </c>
       <c r="AA2">
-        <v>8.9160000000000004</v>
+        <v>-3.6890000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37802</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>8.3010000000000002</v>
+        <v>-2.3029999999999999</v>
       </c>
       <c r="D3">
-        <v>76.292000000000002</v>
+        <v>8.8179999999999996</v>
       </c>
       <c r="E3">
-        <v>9.3339999999999996</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>51.084000000000003</v>
+        <v>5.1760000000000002</v>
       </c>
       <c r="G3">
-        <v>92.415999999999997</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2253.1170000000002</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>34.332999999999998</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1246.009</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +945,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-114.995</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>39.244</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1305.9739999999999</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1250.92</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-4.1950000000000003</v>
+        <v>-0.67100000000000004</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37802</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>947.14300000000003</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>42.555</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>30.001999999999999</v>
+        <v>4.5519999999999996</v>
       </c>
       <c r="W3">
-        <v>-12.381</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-13.54</v>
+        <v>12.798999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-3.077</v>
+        <v>-0.49</v>
       </c>
       <c r="AA3">
-        <v>8.3010000000000002</v>
+        <v>-2.302</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37894</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>10.609</v>
+        <v>-3.8109999999999999</v>
       </c>
       <c r="D4">
-        <v>80.415999999999997</v>
+        <v>9.1340000000000003</v>
       </c>
       <c r="E4">
-        <v>8.49</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>54.752000000000002</v>
+        <v>5.4790000000000001</v>
       </c>
       <c r="G4">
-        <v>76.376999999999995</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2310.857</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>32.712000000000003</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1090.239</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,81 +1031,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>139.46</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1251.913</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1196.9870000000001</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-7.3680000000000003</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37894</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1058.944</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>35.186999999999998</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>35.191000000000003</v>
+        <v>-9.41</v>
       </c>
       <c r="W4">
-        <v>-13.194000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>32.418999999999997</v>
+        <v>23.15</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.32800000000000001</v>
+        <v>-0.58499999999999996</v>
       </c>
       <c r="AA4">
-        <v>10.609</v>
+        <v>-3.8119999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37986</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>15.260999999999999</v>
+        <v>-8.1430000000000007</v>
       </c>
       <c r="D5">
-        <v>85.97</v>
+        <v>11.042999999999999</v>
       </c>
       <c r="E5">
-        <v>61.183999999999997</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="F5">
-        <v>59.758000000000003</v>
+        <v>7.12</v>
       </c>
       <c r="G5">
-        <v>125.431</v>
+        <v>15.37</v>
       </c>
       <c r="H5">
-        <v>2374.2280000000001</v>
+        <v>383.75099999999998</v>
       </c>
       <c r="I5">
-        <v>39.890999999999998</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="J5">
-        <v>1142.222</v>
+        <v>273.80799999999999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.507999999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,244 +1114,244 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>148.08000000000001</v>
+        <v>27.141999999999999</v>
       </c>
       <c r="O5">
-        <v>1312.1590000000001</v>
+        <v>306.226</v>
       </c>
       <c r="P5">
-        <v>1250.4110000000001</v>
+        <v>289.31599999999997</v>
       </c>
       <c r="Q5">
-        <v>-1.292</v>
+        <v>10.779</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37986</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="T5">
-        <v>1062.069</v>
+        <v>77.525000000000006</v>
       </c>
       <c r="U5">
-        <v>33.895000000000003</v>
+        <v>11.746</v>
       </c>
       <c r="V5">
-        <v>35.463999999999999</v>
+        <v>-3.431</v>
       </c>
       <c r="W5">
-        <v>-13.21</v>
+        <v>-1.4510000000000001</v>
       </c>
       <c r="X5">
-        <v>36.796999999999997</v>
+        <v>26.146000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>4.282</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="AA5">
-        <v>15.260999999999999</v>
+        <v>-8.1430000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38077</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>16.277999999999999</v>
+        <v>-6.032</v>
       </c>
       <c r="D6">
-        <v>94.438999999999993</v>
+        <v>11.186999999999999</v>
       </c>
       <c r="E6">
-        <v>26.8</v>
+        <v>0.311</v>
       </c>
       <c r="F6">
-        <v>67.003</v>
+        <v>6.7770000000000001</v>
       </c>
       <c r="G6">
-        <v>86.763999999999996</v>
+        <v>17.161999999999999</v>
       </c>
       <c r="H6">
-        <v>2517.5239999999999</v>
+        <v>476.64499999999998</v>
       </c>
       <c r="I6">
-        <v>46.353000000000002</v>
+        <v>1.133</v>
       </c>
       <c r="J6">
-        <v>1363.6559999999999</v>
+        <v>345.464</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-123.143</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>54.664000000000001</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="O6">
-        <v>1443.7629999999999</v>
+        <v>380.45100000000002</v>
       </c>
       <c r="P6">
-        <v>1377.7950000000001</v>
+        <v>345.50700000000001</v>
       </c>
       <c r="Q6">
-        <v>-7.4109999999999996</v>
+        <v>-8.1639999999999997</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38077</v>
       </c>
       <c r="S6">
-        <v>2239</v>
+        <v>317</v>
       </c>
       <c r="T6">
-        <v>1073.761</v>
+        <v>96.194000000000003</v>
       </c>
       <c r="U6">
-        <v>26.484000000000002</v>
+        <v>3.5819999999999999</v>
       </c>
       <c r="V6">
-        <v>43.506999999999998</v>
+        <v>-2.7770000000000001</v>
       </c>
       <c r="W6">
-        <v>-13.242000000000001</v>
+        <v>-0.72699999999999998</v>
       </c>
       <c r="X6">
-        <v>31.812999999999999</v>
+        <v>79.671999999999997</v>
       </c>
       <c r="Y6">
-        <v>5.8280000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-0.35099999999999998</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="AA6">
-        <v>16.277999999999999</v>
+        <v>-6.032</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38168</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>20.213999999999999</v>
+        <v>-7.0359999999999996</v>
       </c>
       <c r="D7">
-        <v>93.283000000000001</v>
+        <v>14.361000000000001</v>
       </c>
       <c r="E7">
-        <v>15.414999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F7">
-        <v>64.23</v>
+        <v>8.4809999999999999</v>
       </c>
       <c r="G7">
-        <v>77.263000000000005</v>
+        <v>24.792000000000002</v>
       </c>
       <c r="H7">
-        <v>2523.136</v>
+        <v>584.45299999999997</v>
       </c>
       <c r="I7">
-        <v>38.029000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="J7">
-        <v>1080.1179999999999</v>
+        <v>325.86200000000002</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-198.048</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>338.88600000000002</v>
+        <v>106.533</v>
       </c>
       <c r="O7">
-        <v>1443.394</v>
+        <v>496.71699999999998</v>
       </c>
       <c r="P7">
-        <v>1380.9749999999999</v>
+        <v>431.84699999999998</v>
       </c>
       <c r="Q7">
-        <v>11.090999999999999</v>
+        <v>-0.80700000000000005</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38168</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1079.742</v>
+        <v>87.736000000000004</v>
       </c>
       <c r="U7">
-        <v>37.575000000000003</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="V7">
-        <v>40.79</v>
+        <v>-3.3439999999999999</v>
       </c>
       <c r="W7">
-        <v>-19.001999999999999</v>
+        <v>-0.42899999999999999</v>
       </c>
       <c r="X7">
-        <v>-13.304</v>
+        <v>72.122</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1.1359999999999999</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="AA7">
-        <v>20.213999999999999</v>
+        <v>-7.0359999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38260</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>22.413</v>
+        <v>-5.077</v>
       </c>
       <c r="D8">
-        <v>97.649000000000001</v>
+        <v>18.571999999999999</v>
       </c>
       <c r="E8">
-        <v>15.976000000000001</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="F8">
-        <v>69.744</v>
+        <v>11.726000000000001</v>
       </c>
       <c r="G8">
-        <v>238.71199999999999</v>
+        <v>38.473999999999997</v>
       </c>
       <c r="H8">
-        <v>2708.3429999999998</v>
+        <v>737.6</v>
       </c>
       <c r="I8">
-        <v>47.122999999999998</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="J8">
-        <v>1044.866</v>
+        <v>391.62700000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1363,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>326.26100000000002</v>
+        <v>65.344999999999999</v>
       </c>
       <c r="O8">
-        <v>1397.7</v>
+        <v>464.6</v>
       </c>
       <c r="P8">
-        <v>1324.0039999999999</v>
+        <v>454.02300000000002</v>
       </c>
       <c r="Q8">
-        <v>147.92699999999999</v>
+        <v>29.231000000000002</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38260</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1310.643</v>
+        <v>273</v>
       </c>
       <c r="U8">
-        <v>185.50200000000001</v>
+        <v>32.006</v>
       </c>
       <c r="V8">
-        <v>51.831000000000003</v>
+        <v>-9.0790000000000006</v>
       </c>
       <c r="W8">
-        <v>-20.827000000000002</v>
+        <v>-9.4920000000000009</v>
       </c>
       <c r="X8">
-        <v>145.61600000000001</v>
+        <v>119.77800000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.01</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="AA8">
-        <v>22.413</v>
+        <v>-5.077</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38352</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>38.606000000000002</v>
+        <v>-0.317</v>
       </c>
       <c r="D9">
-        <v>112.645</v>
+        <v>22.986999999999998</v>
       </c>
       <c r="E9">
-        <v>10.93</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="F9">
-        <v>78.665000000000006</v>
+        <v>14.057</v>
       </c>
       <c r="G9">
-        <v>85.796999999999997</v>
+        <v>34.86</v>
       </c>
       <c r="H9">
-        <v>3012.922</v>
+        <v>748.48400000000004</v>
       </c>
       <c r="I9">
-        <v>49.609000000000002</v>
+        <v>3.444</v>
       </c>
       <c r="J9">
-        <v>1268.873</v>
+        <v>472.97699999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1446,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>386.47</v>
+        <v>3.444</v>
       </c>
       <c r="O9">
-        <v>1682.77</v>
+        <v>483.42399999999998</v>
       </c>
       <c r="P9">
-        <v>1605.7339999999999</v>
+        <v>472.97699999999998</v>
       </c>
       <c r="Q9">
-        <v>-141.89400000000001</v>
+        <v>-7.6769999999999996</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38352</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="T9">
-        <v>1330.152</v>
+        <v>265.06</v>
       </c>
       <c r="U9">
-        <v>43.607999999999997</v>
+        <v>24.329000000000001</v>
       </c>
       <c r="V9">
-        <v>60.34</v>
+        <v>9.0419999999999998</v>
       </c>
       <c r="W9">
-        <v>-20.864000000000001</v>
+        <v>-7.093</v>
       </c>
       <c r="X9">
-        <v>106.92</v>
+        <v>8.4670000000000005</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-0.35099999999999998</v>
+        <v>-0.71099999999999997</v>
       </c>
       <c r="AA9">
-        <v>38.606000000000002</v>
+        <v>-0.317</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38442</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>36.076000000000001</v>
+        <v>-0.64</v>
       </c>
       <c r="D10">
-        <v>116.678</v>
+        <v>23.225000000000001</v>
       </c>
       <c r="E10">
-        <v>23.289000000000001</v>
+        <v>2.254</v>
       </c>
       <c r="F10">
-        <v>80.367999999999995</v>
+        <v>14.347</v>
       </c>
       <c r="G10">
-        <v>82.593000000000004</v>
+        <v>20.05</v>
       </c>
       <c r="H10">
-        <v>3223.4769999999999</v>
+        <v>797.15300000000002</v>
       </c>
       <c r="I10">
-        <v>52.298999999999999</v>
+        <v>1.619</v>
       </c>
       <c r="J10">
-        <v>1577.5989999999999</v>
+        <v>499.483</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1526,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-2.7650000000000001</v>
       </c>
       <c r="N10">
-        <v>68.941000000000003</v>
+        <v>31.219000000000001</v>
       </c>
       <c r="O10">
-        <v>1678.146</v>
+        <v>540.50099999999998</v>
       </c>
       <c r="P10">
-        <v>1596.653</v>
+        <v>529.08299999999997</v>
       </c>
       <c r="Q10">
-        <v>-12.823</v>
+        <v>-12.042999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38442</v>
       </c>
       <c r="S10">
-        <v>2283</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1545.3309999999999</v>
+        <v>256.65199999999999</v>
       </c>
       <c r="U10">
-        <v>30.785</v>
+        <v>12.286</v>
       </c>
       <c r="V10">
-        <v>62.917999999999999</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="W10">
-        <v>-27.594000000000001</v>
+        <v>-7.0910000000000002</v>
       </c>
       <c r="X10">
-        <v>156.12799999999999</v>
+        <v>42.38</v>
       </c>
       <c r="Y10">
-        <v>3.8260000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.20300000000000001</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="AA10">
-        <v>36.076000000000001</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38533</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>31.425000000000001</v>
+        <v>-1.22</v>
       </c>
       <c r="D11">
-        <v>121.94499999999999</v>
+        <v>24.838999999999999</v>
       </c>
       <c r="E11">
-        <v>9.0960000000000001</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="F11">
-        <v>85.146000000000001</v>
+        <v>15.798</v>
       </c>
       <c r="G11">
-        <v>64.828000000000003</v>
+        <v>114.405</v>
       </c>
       <c r="H11">
-        <v>3229.096</v>
+        <v>901.91</v>
       </c>
       <c r="I11">
-        <v>45.435000000000002</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="J11">
-        <v>1383.643</v>
+        <v>530.08399999999995</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1609,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-74.912000000000006</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>259.34699999999998</v>
+        <v>30.292000000000002</v>
       </c>
       <c r="O11">
-        <v>1675.944</v>
+        <v>572.71699999999998</v>
       </c>
       <c r="P11">
-        <v>1597.5550000000001</v>
+        <v>559.09500000000003</v>
       </c>
       <c r="Q11">
-        <v>4.79</v>
+        <v>82.756</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38533</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1553.152</v>
+        <v>329.19299999999998</v>
       </c>
       <c r="U11">
-        <v>35.575000000000003</v>
+        <v>95.042000000000002</v>
       </c>
       <c r="V11">
-        <v>51.116</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="W11">
-        <v>-27.73</v>
+        <v>-7.0910000000000002</v>
       </c>
       <c r="X11">
-        <v>-22.981000000000002</v>
+        <v>100.49299999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.58899999999999997</v>
+        <v>-1.714</v>
       </c>
       <c r="AA11">
-        <v>31.425000000000001</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38625</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>34.466000000000001</v>
+        <v>-2.859</v>
       </c>
       <c r="D12">
-        <v>129.16</v>
+        <v>43.701000000000001</v>
       </c>
       <c r="E12">
-        <v>3.258</v>
+        <v>31.100999999999999</v>
       </c>
       <c r="F12">
-        <v>92.813000000000002</v>
+        <v>29.821999999999999</v>
       </c>
       <c r="G12">
-        <v>240.37899999999999</v>
+        <v>98.301000000000002</v>
       </c>
       <c r="H12">
-        <v>3432.616</v>
+        <v>1429.5550000000001</v>
       </c>
       <c r="I12">
-        <v>46.981999999999999</v>
+        <v>2.952</v>
       </c>
       <c r="J12">
-        <v>1763.9849999999999</v>
+        <v>967.17200000000003</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1695,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>52.018999999999998</v>
+        <v>89.584000000000003</v>
       </c>
       <c r="O12">
-        <v>1842.825</v>
+        <v>1091.902</v>
       </c>
       <c r="P12">
-        <v>1769.0219999999999</v>
+        <v>1053.8040000000001</v>
       </c>
       <c r="Q12">
-        <v>171.357</v>
+        <v>-87.948999999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38625</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1589.7909999999999</v>
+        <v>337.65300000000002</v>
       </c>
       <c r="U12">
-        <v>206.93199999999999</v>
+        <v>7.093</v>
       </c>
       <c r="V12">
-        <v>75.435000000000002</v>
+        <v>-17.108000000000001</v>
       </c>
       <c r="W12">
-        <v>-44.488</v>
+        <v>-8.6259999999999994</v>
       </c>
       <c r="X12">
-        <v>139.643</v>
+        <v>470.63</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.36599999999999999</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="AA12">
-        <v>34.466000000000001</v>
+        <v>-2.859</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38717</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>29.245000000000001</v>
+        <v>-0.247</v>
       </c>
       <c r="D13">
-        <v>136.51599999999999</v>
+        <v>46.133000000000003</v>
       </c>
       <c r="E13">
-        <v>7.9279999999999999</v>
+        <v>18.97</v>
       </c>
       <c r="F13">
-        <v>96.84</v>
+        <v>30.945</v>
       </c>
       <c r="G13">
-        <v>119.96</v>
+        <v>96.111000000000004</v>
       </c>
       <c r="H13">
-        <v>3518.239</v>
+        <v>1420.192</v>
       </c>
       <c r="I13">
-        <v>58.247999999999998</v>
+        <v>13.260999999999999</v>
       </c>
       <c r="J13">
-        <v>1731.539</v>
+        <v>866.78300000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1778,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>88.721000000000004</v>
+        <v>20.443000000000001</v>
       </c>
       <c r="O13">
-        <v>1849.3589999999999</v>
+        <v>903.82899999999995</v>
       </c>
       <c r="P13">
-        <v>1762.0119999999999</v>
+        <v>868.93399999999997</v>
       </c>
       <c r="Q13">
-        <v>-125.233</v>
+        <v>21.56</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38717</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1943</v>
       </c>
       <c r="T13">
-        <v>1668.88</v>
+        <v>516.36300000000006</v>
       </c>
       <c r="U13">
-        <v>81.698999999999998</v>
+        <v>28.652999999999999</v>
       </c>
       <c r="V13">
-        <v>72.033000000000001</v>
+        <v>27.434000000000001</v>
       </c>
       <c r="W13">
-        <v>-44.494</v>
+        <v>-11.776999999999999</v>
       </c>
       <c r="X13">
-        <v>-164.029</v>
+        <v>-9.1159999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.17100000000000001</v>
+        <v>-2.2450000000000001</v>
       </c>
       <c r="AA13">
-        <v>29.245000000000001</v>
+        <v>-0.247</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38807</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>76.94</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D14">
-        <v>144.64500000000001</v>
+        <v>46.509</v>
       </c>
       <c r="E14">
-        <v>26.277999999999999</v>
+        <v>14.707000000000001</v>
       </c>
       <c r="F14">
-        <v>99.814999999999998</v>
+        <v>31.134</v>
       </c>
       <c r="G14">
-        <v>205.75299999999999</v>
+        <v>63.780999999999999</v>
       </c>
       <c r="H14">
-        <v>3977.14</v>
+        <v>1428.268</v>
       </c>
       <c r="I14">
-        <v>60.600999999999999</v>
+        <v>7.3259999999999996</v>
       </c>
       <c r="J14">
-        <v>1946.6469999999999</v>
+        <v>889.8</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1858,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-4.0490000000000004</v>
       </c>
       <c r="N14">
-        <v>64.956000000000003</v>
+        <v>10.32</v>
       </c>
       <c r="O14">
-        <v>2045.2449999999999</v>
+        <v>923.70799999999997</v>
       </c>
       <c r="P14">
-        <v>1952.4069999999999</v>
+        <v>892.79399999999998</v>
       </c>
       <c r="Q14">
-        <v>45.024000000000001</v>
+        <v>-17.591999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38807</v>
       </c>
       <c r="S14">
-        <v>2584</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1931.895</v>
+        <v>504.56</v>
       </c>
       <c r="U14">
-        <v>126.723</v>
+        <v>11.061</v>
       </c>
       <c r="V14">
-        <v>72.674999999999997</v>
+        <v>15.03</v>
       </c>
       <c r="W14">
-        <v>-46.302</v>
+        <v>-11.776999999999999</v>
       </c>
       <c r="X14">
-        <v>239.02199999999999</v>
+        <v>13.422000000000001</v>
       </c>
       <c r="Y14">
-        <v>2.0760000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.39</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="AA14">
-        <v>76.94</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38898</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>37.340000000000003</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="D15">
-        <v>155.006</v>
+        <v>49.618000000000002</v>
       </c>
       <c r="E15">
-        <v>8.9659999999999993</v>
+        <v>11.218999999999999</v>
       </c>
       <c r="F15">
-        <v>106.901</v>
+        <v>33.780999999999999</v>
       </c>
       <c r="G15">
-        <v>86.287999999999997</v>
+        <v>45.32</v>
       </c>
       <c r="H15">
-        <v>4123.491</v>
+        <v>1477.9690000000001</v>
       </c>
       <c r="I15">
-        <v>52.886000000000003</v>
+        <v>4.4859999999999998</v>
       </c>
       <c r="J15">
-        <v>2109.8780000000002</v>
+        <v>947.28899999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1941,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-127.881</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>55.969000000000001</v>
+        <v>7.4669999999999996</v>
       </c>
       <c r="O15">
-        <v>2200.3069999999998</v>
+        <v>982.08199999999999</v>
       </c>
       <c r="P15">
-        <v>2112.9609999999998</v>
+        <v>950.27</v>
       </c>
       <c r="Q15">
-        <v>-79.707999999999998</v>
+        <v>-6.8109999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38898</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1923.184</v>
+        <v>495.887</v>
       </c>
       <c r="U15">
-        <v>47.015000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="V15">
-        <v>64.572000000000003</v>
+        <v>21.234000000000002</v>
       </c>
       <c r="W15">
-        <v>-46.347000000000001</v>
+        <v>-11.784000000000001</v>
       </c>
       <c r="X15">
-        <v>112.328</v>
+        <v>33.761000000000003</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-4.7779999999999996</v>
       </c>
       <c r="AA15">
-        <v>37.340000000000003</v>
+        <v>3.0920000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38990</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>41.664999999999999</v>
+        <v>4.3070000000000004</v>
       </c>
       <c r="D16">
-        <v>163.328</v>
+        <v>52.527999999999999</v>
       </c>
       <c r="E16">
-        <v>12.64</v>
+        <v>6.0259999999999998</v>
       </c>
       <c r="F16">
-        <v>117.005</v>
+        <v>35.631</v>
       </c>
       <c r="G16">
-        <v>91.927000000000007</v>
+        <v>189.30600000000001</v>
       </c>
       <c r="H16">
-        <v>4208.8900000000003</v>
+        <v>1668.5360000000001</v>
       </c>
       <c r="I16">
-        <v>65.539000000000001</v>
+        <v>6.7759999999999998</v>
       </c>
       <c r="J16">
-        <v>2163.627</v>
+        <v>935.70600000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2027,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>68.733000000000004</v>
+        <v>25.491</v>
       </c>
       <c r="O16">
-        <v>2278.1819999999998</v>
+        <v>981.92200000000003</v>
       </c>
       <c r="P16">
-        <v>2166.8209999999999</v>
+        <v>945.19399999999996</v>
       </c>
       <c r="Q16">
-        <v>6.93</v>
+        <v>147.43600000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38990</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1930.7080000000001</v>
+        <v>686.61400000000003</v>
       </c>
       <c r="U16">
-        <v>53.945</v>
+        <v>151.68600000000001</v>
       </c>
       <c r="V16">
-        <v>103.187</v>
+        <v>24.452000000000002</v>
       </c>
       <c r="W16">
-        <v>-54.527000000000001</v>
+        <v>-11.846</v>
       </c>
       <c r="X16">
-        <v>-39.423000000000002</v>
+        <v>173.28</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="AA16">
-        <v>41.664999999999999</v>
+        <v>4.3070000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39082</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>54.228000000000002</v>
+        <v>6.7389999999999999</v>
       </c>
       <c r="D17">
-        <v>171.84399999999999</v>
+        <v>53.302</v>
       </c>
       <c r="E17">
-        <v>12.282999999999999</v>
+        <v>25.253</v>
       </c>
       <c r="F17">
-        <v>125.184</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="G17">
-        <v>95.021000000000001</v>
+        <v>145.47499999999999</v>
       </c>
       <c r="H17">
-        <v>4225.8950000000004</v>
+        <v>1669.825</v>
       </c>
       <c r="I17">
-        <v>73.528000000000006</v>
+        <v>25.704000000000001</v>
       </c>
       <c r="J17">
-        <v>2178.8809999999999</v>
+        <v>948.17399999999998</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2110,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>75.346000000000004</v>
+        <v>25.704000000000001</v>
       </c>
       <c r="O17">
-        <v>2292.297</v>
+        <v>991.11199999999997</v>
       </c>
       <c r="P17">
-        <v>2180.6990000000001</v>
+        <v>948.17399999999998</v>
       </c>
       <c r="Q17">
-        <v>-4.7290000000000001</v>
+        <v>-80.885000000000005</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39082</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1835</v>
       </c>
       <c r="T17">
-        <v>1933.598</v>
+        <v>678.71299999999997</v>
       </c>
       <c r="U17">
-        <v>49.216000000000001</v>
+        <v>70.801000000000002</v>
       </c>
       <c r="V17">
-        <v>88.805000000000007</v>
+        <v>16.169</v>
       </c>
       <c r="W17">
-        <v>-54.536000000000001</v>
+        <v>-14.598000000000001</v>
       </c>
       <c r="X17">
-        <v>-50.034999999999997</v>
+        <v>-15.422000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-0.55600000000000005</v>
       </c>
       <c r="AA17">
-        <v>54.228000000000002</v>
+        <v>6.7389999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39172</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>45.122</v>
+        <v>6.47</v>
       </c>
       <c r="D18">
-        <v>167.92500000000001</v>
+        <v>54.972999999999999</v>
       </c>
       <c r="E18">
-        <v>31.946000000000002</v>
+        <v>5.9660000000000002</v>
       </c>
       <c r="F18">
-        <v>116.34399999999999</v>
+        <v>37.103999999999999</v>
       </c>
       <c r="G18">
-        <v>128.17699999999999</v>
+        <v>87.171000000000006</v>
       </c>
       <c r="H18">
-        <v>4381.9870000000001</v>
+        <v>1951.61</v>
       </c>
       <c r="I18">
-        <v>65.521000000000001</v>
+        <v>6.9409999999999998</v>
       </c>
       <c r="J18">
-        <v>2353.297</v>
+        <v>1229.3330000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2190,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-0.69199999999999995</v>
       </c>
       <c r="N18">
-        <v>66.192999999999998</v>
+        <v>20.908000000000001</v>
       </c>
       <c r="O18">
-        <v>2470.0039999999999</v>
+        <v>1280.3789999999999</v>
       </c>
       <c r="P18">
-        <v>2354.0100000000002</v>
+        <v>1243.3</v>
       </c>
       <c r="Q18">
-        <v>-1.5529999999999999</v>
+        <v>-35.69</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39172</v>
       </c>
       <c r="S18">
-        <v>2643</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1911.9829999999999</v>
+        <v>671.23099999999999</v>
       </c>
       <c r="U18">
-        <v>47.662999999999997</v>
+        <v>35.110999999999997</v>
       </c>
       <c r="V18">
-        <v>81.016999999999996</v>
+        <v>25.661999999999999</v>
       </c>
       <c r="W18">
-        <v>-54.680999999999997</v>
+        <v>-14.618</v>
       </c>
       <c r="X18">
-        <v>125.437</v>
+        <v>274.29700000000003</v>
       </c>
       <c r="Y18">
-        <v>0.71299999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-291.94299999999998</v>
       </c>
       <c r="AA18">
-        <v>45.122</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39263</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>53.741999999999997</v>
+        <v>8.6950000000000003</v>
       </c>
       <c r="D19">
-        <v>175.804</v>
+        <v>57.741999999999997</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>8.3209999999999997</v>
       </c>
       <c r="F19">
-        <v>124.76300000000001</v>
+        <v>39.173000000000002</v>
       </c>
       <c r="G19">
-        <v>84.477999999999994</v>
+        <v>89.638999999999996</v>
       </c>
       <c r="H19">
-        <v>4464.1450000000004</v>
+        <v>1983.9390000000001</v>
       </c>
       <c r="I19">
-        <v>71.552999999999997</v>
+        <v>25.363</v>
       </c>
       <c r="J19">
-        <v>2431.9119999999998</v>
+        <v>1240.807</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2273,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-228.87799999999999</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>78.784000000000006</v>
+        <v>29.876000000000001</v>
       </c>
       <c r="O19">
-        <v>2557.09</v>
+        <v>1308.9110000000001</v>
       </c>
       <c r="P19">
-        <v>2439.143</v>
+        <v>1245.32</v>
       </c>
       <c r="Q19">
-        <v>-2.359</v>
+        <v>10.679</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39263</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1907.0550000000001</v>
+        <v>675.02800000000002</v>
       </c>
       <c r="U19">
-        <v>45.304000000000002</v>
+        <v>45.79</v>
       </c>
       <c r="V19">
-        <v>87.438999999999993</v>
+        <v>26.242999999999999</v>
       </c>
       <c r="W19">
-        <v>-54.731999999999999</v>
+        <v>-14.75</v>
       </c>
       <c r="X19">
-        <v>1.7130000000000001</v>
+        <v>-145.584</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>195.59</v>
       </c>
       <c r="AA19">
-        <v>53.741999999999997</v>
+        <v>8.6950000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39355</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>55.338999999999999</v>
+        <v>11.337999999999999</v>
       </c>
       <c r="D20">
-        <v>188.86099999999999</v>
+        <v>65.13</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>16.638999999999999</v>
       </c>
       <c r="F20">
-        <v>132.815</v>
+        <v>44.125999999999998</v>
       </c>
       <c r="G20">
-        <v>206.928</v>
+        <v>100.351</v>
       </c>
       <c r="H20">
-        <v>4833.75</v>
+        <v>2019.575</v>
       </c>
       <c r="I20">
-        <v>69.378</v>
+        <v>33.951000000000001</v>
       </c>
       <c r="J20">
-        <v>2288.4560000000001</v>
+        <v>1268.0070000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2359,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>73.156000000000006</v>
+        <v>38.463999999999999</v>
       </c>
       <c r="O20">
-        <v>2410.4720000000002</v>
+        <v>1324.8869999999999</v>
       </c>
       <c r="P20">
-        <v>2292.2339999999999</v>
+        <v>1272.52</v>
       </c>
       <c r="Q20">
-        <v>130.589</v>
+        <v>-3.96</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39355</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2423.2779999999998</v>
+        <v>694.68799999999999</v>
       </c>
       <c r="U20">
-        <v>175.893</v>
+        <v>41.83</v>
       </c>
       <c r="V20">
-        <v>95.847999999999999</v>
+        <v>26.946999999999999</v>
       </c>
       <c r="W20">
-        <v>-68.741</v>
+        <v>-14.85</v>
       </c>
       <c r="X20">
-        <v>196.01900000000001</v>
+        <v>-15.529</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>42.384</v>
       </c>
       <c r="AA20">
-        <v>55.338999999999999</v>
+        <v>11.337999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39447</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>71.718000000000004</v>
+        <v>9.5909999999999993</v>
       </c>
       <c r="D21">
-        <v>200.9</v>
+        <v>66.320999999999998</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>15.901999999999999</v>
       </c>
       <c r="F21">
-        <v>148.13399999999999</v>
+        <v>45.982999999999997</v>
       </c>
       <c r="G21">
-        <v>1347.319</v>
+        <v>72.89</v>
       </c>
       <c r="H21">
-        <v>6002.8360000000002</v>
+        <v>2054.0749999999998</v>
       </c>
       <c r="I21">
-        <v>76.302999999999997</v>
+        <v>31.346</v>
       </c>
       <c r="J21">
-        <v>3467.799</v>
+        <v>1319.896</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2442,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>96.706000000000003</v>
+        <v>31.346</v>
       </c>
       <c r="O21">
-        <v>3615.4960000000001</v>
+        <v>1369.172</v>
       </c>
       <c r="P21">
-        <v>3488.2020000000002</v>
+        <v>1322.4880000000001</v>
       </c>
       <c r="Q21">
-        <v>939.63900000000001</v>
+        <v>-24.452999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39447</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1853</v>
       </c>
       <c r="T21">
-        <v>2387.34</v>
+        <v>684.90300000000002</v>
       </c>
       <c r="U21">
-        <v>1115.5319999999999</v>
+        <v>17.376999999999999</v>
       </c>
       <c r="V21">
-        <v>102.994</v>
+        <v>22.48</v>
       </c>
       <c r="W21">
-        <v>-72.602999999999994</v>
+        <v>-16.446000000000002</v>
       </c>
       <c r="X21">
-        <v>1070.29</v>
+        <v>-14.361000000000001</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="Z21">
-        <v>-0.48799999999999999</v>
+        <v>18.954999999999998</v>
       </c>
       <c r="AA21">
-        <v>71.718000000000004</v>
+        <v>9.5909999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39538</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>8.6750000000000007</v>
+        <v>4.335</v>
       </c>
       <c r="D22">
-        <v>229.05600000000001</v>
+        <v>66.929000000000002</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>17.763000000000002</v>
       </c>
       <c r="F22">
-        <v>113.038</v>
+        <v>45.125999999999998</v>
       </c>
       <c r="G22">
-        <v>113.738</v>
+        <v>79.260000000000005</v>
       </c>
       <c r="H22">
-        <v>6071.4070000000002</v>
+        <v>2049.2840000000001</v>
       </c>
       <c r="I22">
-        <v>82.692999999999998</v>
+        <v>34.786999999999999</v>
       </c>
       <c r="J22">
-        <v>3542.6120000000001</v>
+        <v>1249.452</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,81 +2522,81 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-1.0820000000000001</v>
       </c>
       <c r="N22">
-        <v>84.915999999999997</v>
+        <v>106.327</v>
       </c>
       <c r="O22">
-        <v>3698.8029999999999</v>
+        <v>1373.748</v>
       </c>
       <c r="P22">
-        <v>3542.6120000000001</v>
+        <v>1320.992</v>
       </c>
       <c r="Q22">
-        <v>-1039.7329999999999</v>
+        <v>3.633</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39538</v>
       </c>
       <c r="S22">
-        <v>3209</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2372.6039999999998</v>
+        <v>675.53599999999994</v>
       </c>
       <c r="U22">
-        <v>75.799000000000007</v>
+        <v>21.01</v>
       </c>
       <c r="V22">
-        <v>81.048000000000002</v>
+        <v>24.199000000000002</v>
       </c>
       <c r="W22">
-        <v>-73.225999999999999</v>
+        <v>-16.603999999999999</v>
       </c>
       <c r="X22">
-        <v>18.449000000000002</v>
+        <v>-18.585999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>42.134</v>
+        <v>21.045999999999999</v>
       </c>
       <c r="AA22">
-        <v>8.6750000000000007</v>
+        <v>4.335</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39629</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>82.591999999999999</v>
+        <v>6.4969999999999999</v>
       </c>
       <c r="D23">
-        <v>232.233</v>
+        <v>68.709000000000003</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>17.123000000000001</v>
       </c>
       <c r="F23">
-        <v>166.81</v>
+        <v>46.475999999999999</v>
       </c>
       <c r="G23">
-        <v>183.41900000000001</v>
+        <v>245.578</v>
       </c>
       <c r="H23">
-        <v>6291.4189999999999</v>
+        <v>2249.277</v>
       </c>
       <c r="I23">
-        <v>77.108000000000004</v>
+        <v>33.609000000000002</v>
       </c>
       <c r="J23">
-        <v>3647.1880000000001</v>
+        <v>1133.3</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2605,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-52.497999999999998</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>146.816</v>
+        <v>200.98</v>
       </c>
       <c r="O23">
-        <v>3866.0340000000001</v>
+        <v>1353.367</v>
       </c>
       <c r="P23">
-        <v>3716.8960000000002</v>
+        <v>1300.671</v>
       </c>
       <c r="Q23">
-        <v>-26.045999999999999</v>
+        <v>164.827</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39629</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2425.3850000000002</v>
+        <v>895.91</v>
       </c>
       <c r="U23">
-        <v>49.753</v>
+        <v>185.83699999999999</v>
       </c>
       <c r="V23">
-        <v>95.465999999999994</v>
+        <v>25.92</v>
       </c>
       <c r="W23">
-        <v>-73.826999999999998</v>
+        <v>-20.484000000000002</v>
       </c>
       <c r="X23">
-        <v>137.15600000000001</v>
+        <v>189.554</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-4.476</v>
+        <v>-2.2839999999999998</v>
       </c>
       <c r="AA23">
-        <v>82.591999999999999</v>
+        <v>6.4969999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39721</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>83.043999999999997</v>
+        <v>9.9160000000000004</v>
       </c>
       <c r="D24">
-        <v>247.631</v>
+        <v>71.863</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>20.91</v>
       </c>
       <c r="F24">
-        <v>181.26</v>
+        <v>49.07</v>
       </c>
       <c r="G24">
-        <v>110.404</v>
+        <v>177.95400000000001</v>
       </c>
       <c r="H24">
-        <v>6458.9979999999996</v>
+        <v>2243.6860000000001</v>
       </c>
       <c r="I24">
-        <v>91.188000000000002</v>
+        <v>36.484000000000002</v>
       </c>
       <c r="J24">
-        <v>3850.1030000000001</v>
+        <v>1017.0940000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2691,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>91.188000000000002</v>
+        <v>319.06799999999998</v>
       </c>
       <c r="O24">
-        <v>4015.7809999999999</v>
+        <v>1355.019</v>
       </c>
       <c r="P24">
-        <v>3850.1030000000001</v>
+        <v>1299.6780000000001</v>
       </c>
       <c r="Q24">
-        <v>-8.6950000000000003</v>
+        <v>-73.760999999999996</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39721</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2443.2170000000001</v>
+        <v>888.66700000000003</v>
       </c>
       <c r="U24">
-        <v>41.058</v>
+        <v>112.07599999999999</v>
       </c>
       <c r="V24">
-        <v>144.20400000000001</v>
+        <v>25.907</v>
       </c>
       <c r="W24">
-        <v>-97.686999999999998</v>
+        <v>-20.584</v>
       </c>
       <c r="X24">
-        <v>-5.5750000000000002</v>
+        <v>-21.727</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-13.515000000000001</v>
+        <v>-45.127000000000002</v>
       </c>
       <c r="AA24">
-        <v>83.043999999999997</v>
+        <v>9.9160000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39813</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>118.08799999999999</v>
+        <v>15.032999999999999</v>
       </c>
       <c r="D25">
-        <v>260.80799999999999</v>
+        <v>72.682000000000002</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>22.454999999999998</v>
       </c>
       <c r="F25">
-        <v>192.441</v>
+        <v>49.923000000000002</v>
       </c>
       <c r="G25">
-        <v>111.411</v>
+        <v>130.93299999999999</v>
       </c>
       <c r="H25">
-        <v>6742.0559999999996</v>
+        <v>2291.0079999999998</v>
       </c>
       <c r="I25">
-        <v>102.47</v>
+        <v>35.128</v>
       </c>
       <c r="J25">
-        <v>3898.6480000000001</v>
+        <v>1286.82</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2774,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>235.47</v>
+        <v>37.953000000000003</v>
       </c>
       <c r="O25">
-        <v>4212.6840000000002</v>
+        <v>1344.2149999999999</v>
       </c>
       <c r="P25">
-        <v>4031.6480000000001</v>
+        <v>1289.8489999999999</v>
       </c>
       <c r="Q25">
-        <v>-22.366</v>
+        <v>-48.103999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39813</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1947</v>
       </c>
       <c r="T25">
-        <v>2529.3719999999998</v>
+        <v>946.79300000000001</v>
       </c>
       <c r="U25">
-        <v>18.692</v>
+        <v>63.972000000000001</v>
       </c>
       <c r="V25">
-        <v>146.489</v>
+        <v>22.364999999999998</v>
       </c>
       <c r="W25">
-        <v>-98.116</v>
+        <v>-21.448</v>
       </c>
       <c r="X25">
-        <v>129.46299999999999</v>
+        <v>23.443999999999999</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="Z25">
-        <v>4.2919999999999998</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="AA25">
-        <v>118.08799999999999</v>
+        <v>15.032999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39903</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>82.403000000000006</v>
+        <v>27.619</v>
       </c>
       <c r="D26">
-        <v>264.09800000000001</v>
+        <v>71.141999999999996</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>13.698</v>
       </c>
       <c r="F26">
-        <v>218.75700000000001</v>
+        <v>47.014000000000003</v>
       </c>
       <c r="G26">
-        <v>134.53800000000001</v>
+        <v>110.943</v>
       </c>
       <c r="H26">
-        <v>7091.4459999999999</v>
+        <v>2303.7359999999999</v>
       </c>
       <c r="I26">
-        <v>101.38800000000001</v>
+        <v>33.343000000000004</v>
       </c>
       <c r="J26">
-        <v>4308.67</v>
+        <v>1295.059</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,81 +2854,81 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-119.64400000000001</v>
       </c>
       <c r="N26">
-        <v>101.38800000000001</v>
+        <v>33.905000000000001</v>
       </c>
       <c r="O26">
-        <v>4495.28</v>
+        <v>1350.6990000000001</v>
       </c>
       <c r="P26">
-        <v>4308.67</v>
+        <v>1298.24</v>
       </c>
       <c r="Q26">
-        <v>25.166</v>
+        <v>-9.4939999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39903</v>
       </c>
       <c r="S26">
-        <v>3287</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2596.1660000000002</v>
+        <v>953.03700000000003</v>
       </c>
       <c r="U26">
-        <v>43.857999999999997</v>
+        <v>54.478000000000002</v>
       </c>
       <c r="V26">
-        <v>153.10400000000001</v>
+        <v>18.617999999999999</v>
       </c>
       <c r="W26">
-        <v>-98.188000000000002</v>
+        <v>-21.526</v>
       </c>
       <c r="X26">
-        <v>199.78700000000001</v>
+        <v>5.5309999999999997</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>3.181</v>
       </c>
       <c r="Z26">
-        <v>2.411</v>
+        <v>-0.114</v>
       </c>
       <c r="AA26">
-        <v>82.403000000000006</v>
+        <v>27.619</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39994</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>82.281999999999996</v>
+        <v>-7.5410000000000004</v>
       </c>
       <c r="D27">
-        <v>266.58699999999999</v>
+        <v>70.706000000000003</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>15.159000000000001</v>
       </c>
       <c r="F27">
-        <v>196.02199999999999</v>
+        <v>47.667999999999999</v>
       </c>
       <c r="G27">
-        <v>97.144999999999996</v>
+        <v>194.215</v>
       </c>
       <c r="H27">
-        <v>7034.357</v>
+        <v>2382.444</v>
       </c>
       <c r="I27">
-        <v>77.105999999999995</v>
+        <v>34.462000000000003</v>
       </c>
       <c r="J27">
-        <v>4292.5280000000002</v>
+        <v>1375.1849999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2937,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-187.916</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>77.105999999999995</v>
+        <v>34.826000000000001</v>
       </c>
       <c r="O27">
-        <v>4448.5420000000004</v>
+        <v>1436.47</v>
       </c>
       <c r="P27">
-        <v>4292.5280000000002</v>
+        <v>1381.99</v>
       </c>
       <c r="Q27">
-        <v>-16.2</v>
+        <v>77.072999999999993</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39994</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2585.8150000000001</v>
+        <v>945.97400000000005</v>
       </c>
       <c r="U27">
-        <v>29.311</v>
+        <v>131.55099999999999</v>
       </c>
       <c r="V27">
-        <v>113.121</v>
+        <v>30.513999999999999</v>
       </c>
       <c r="W27">
-        <v>-98.212000000000003</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-127.578</v>
+        <v>79.423000000000002</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>6.8049999999999997</v>
       </c>
       <c r="Z27">
-        <v>-0.93799999999999994</v>
+        <v>-1.0409999999999999</v>
       </c>
       <c r="AA27">
-        <v>82.281999999999996</v>
+        <v>-7.5410000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40086</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>87.006</v>
+        <v>5.9669999999999996</v>
       </c>
       <c r="D28">
-        <v>279.84100000000001</v>
+        <v>72.864999999999995</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>15.712</v>
       </c>
       <c r="F28">
-        <v>208.74199999999999</v>
+        <v>48.579000000000001</v>
       </c>
       <c r="G28">
-        <v>97.206000000000003</v>
+        <v>167.48400000000001</v>
       </c>
       <c r="H28">
-        <v>7037.4629999999997</v>
+        <v>2369.15</v>
       </c>
       <c r="I28">
-        <v>92.677999999999997</v>
+        <v>40.636000000000003</v>
       </c>
       <c r="J28">
-        <v>4284.7280000000001</v>
+        <v>1356.2280000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3023,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>98.677999999999997</v>
+        <v>40.811999999999998</v>
       </c>
       <c r="O28">
-        <v>4458.78</v>
+        <v>1420.415</v>
       </c>
       <c r="P28">
-        <v>4290.7280000000001</v>
+        <v>1362.4649999999999</v>
       </c>
       <c r="Q28">
-        <v>6.87</v>
+        <v>-30.559000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40086</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2578.683</v>
+        <v>948.73500000000001</v>
       </c>
       <c r="U28">
-        <v>31.648</v>
+        <v>100.992</v>
       </c>
       <c r="V28">
-        <v>175.928</v>
+        <v>16.96</v>
       </c>
       <c r="W28">
-        <v>-98.256</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-124.64700000000001</v>
+        <v>-26.666</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>6.2370000000000001</v>
       </c>
       <c r="Z28">
-        <v>-1.151</v>
+        <v>-1.38</v>
       </c>
       <c r="AA28">
-        <v>87.006</v>
+        <v>5.9669999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40178</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>93.763999999999996</v>
+        <v>5.9320000000000004</v>
       </c>
       <c r="D29">
-        <v>288.14600000000002</v>
+        <v>72.397000000000006</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="F29">
-        <v>211.44399999999999</v>
+        <v>49.453000000000003</v>
       </c>
       <c r="G29">
-        <v>129.81899999999999</v>
+        <v>196.53100000000001</v>
       </c>
       <c r="H29">
-        <v>7086.9549999999999</v>
+        <v>2407.556</v>
       </c>
       <c r="I29">
-        <v>114.247</v>
+        <v>33.386000000000003</v>
       </c>
       <c r="J29">
-        <v>4289.442</v>
+        <v>1402.9770000000001</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3106,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>139.24700000000001</v>
+        <v>36.642000000000003</v>
       </c>
       <c r="O29">
-        <v>4513.2299999999996</v>
+        <v>1461.337</v>
       </c>
       <c r="P29">
-        <v>4314.442</v>
+        <v>1410.348</v>
       </c>
       <c r="Q29">
-        <v>32.597000000000001</v>
+        <v>30.957999999999998</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40178</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="T29">
-        <v>2573.7249999999999</v>
+        <v>946.21900000000005</v>
       </c>
       <c r="U29">
-        <v>63.731999999999999</v>
+        <v>131.94999999999999</v>
       </c>
       <c r="V29">
-        <v>160.58000000000001</v>
+        <v>15.073</v>
       </c>
       <c r="W29">
-        <v>-98.286000000000001</v>
+        <v>-11.273999999999999</v>
       </c>
       <c r="X29">
-        <v>-89.786000000000001</v>
+        <v>32.935000000000002</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>6.26</v>
       </c>
       <c r="Z29">
-        <v>-0.35099999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="AA29">
-        <v>93.763999999999996</v>
+        <v>5.9320000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40268</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>215.96100000000001</v>
+        <v>3.5680000000000001</v>
       </c>
       <c r="D30">
-        <v>285.76600000000002</v>
+        <v>69.087999999999994</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>25.352</v>
       </c>
       <c r="F30">
-        <v>227.39500000000001</v>
+        <v>45.908999999999999</v>
       </c>
       <c r="G30">
-        <v>145.017</v>
+        <v>176.13200000000001</v>
       </c>
       <c r="H30">
-        <v>7460.9530000000004</v>
+        <v>2237.462</v>
       </c>
       <c r="I30">
-        <v>96.087000000000003</v>
+        <v>33.898000000000003</v>
       </c>
       <c r="J30">
-        <v>4554.2259999999997</v>
+        <v>1242.6220000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3186,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-48.219000000000001</v>
       </c>
       <c r="N30">
-        <v>101.90300000000001</v>
+        <v>36.109000000000002</v>
       </c>
       <c r="O30">
-        <v>4737.1459999999997</v>
+        <v>1297.155</v>
       </c>
       <c r="P30">
-        <v>4554.2259999999997</v>
+        <v>1248.3579999999999</v>
       </c>
       <c r="Q30">
-        <v>5.0350000000000001</v>
+        <v>-23.21</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40268</v>
       </c>
       <c r="S30">
-        <v>3380</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>2723.8069999999998</v>
+        <v>940.30700000000002</v>
       </c>
       <c r="U30">
-        <v>55.683</v>
+        <v>108.74</v>
       </c>
       <c r="V30">
-        <v>147.74600000000001</v>
+        <v>16.015000000000001</v>
       </c>
       <c r="W30">
-        <v>-98.286000000000001</v>
+        <v>-8.7070000000000007</v>
       </c>
       <c r="X30">
-        <v>126.017</v>
+        <v>-51.045999999999999</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>5.7359999999999998</v>
       </c>
       <c r="Z30">
-        <v>-14.923</v>
+        <v>-1.0569999999999999</v>
       </c>
       <c r="AA30">
-        <v>215.96100000000001</v>
+        <v>3.5680000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40359</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>88.256</v>
+        <v>6.18</v>
       </c>
       <c r="D31">
-        <v>289.08199999999999</v>
+        <v>70.335999999999999</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>22.404</v>
       </c>
       <c r="F31">
-        <v>210.72200000000001</v>
+        <v>47.938000000000002</v>
       </c>
       <c r="G31">
-        <v>115.352</v>
+        <v>89.576999999999998</v>
       </c>
       <c r="H31">
-        <v>7470.6239999999998</v>
+        <v>2179.1149999999998</v>
       </c>
       <c r="I31">
-        <v>108.931</v>
+        <v>32.192999999999998</v>
       </c>
       <c r="J31">
-        <v>4514.3630000000003</v>
+        <v>1186.307</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3269,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-226.66800000000001</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>152.20400000000001</v>
+        <v>33.545999999999999</v>
       </c>
       <c r="O31">
-        <v>4753.9780000000001</v>
+        <v>1238.346</v>
       </c>
       <c r="P31">
-        <v>4514.3630000000003</v>
+        <v>1191.675</v>
       </c>
       <c r="Q31">
-        <v>-31.98</v>
+        <v>-80.385999999999996</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40359</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2716.6460000000002</v>
+        <v>940.76900000000001</v>
       </c>
       <c r="U31">
-        <v>35.527000000000001</v>
+        <v>28.353999999999999</v>
       </c>
       <c r="V31">
-        <v>171.608</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="W31">
-        <v>-98.326999999999998</v>
+        <v>-8.7479999999999993</v>
       </c>
       <c r="X31">
-        <v>-172.66</v>
+        <v>-74.94</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>5.3680000000000003</v>
       </c>
       <c r="Z31">
-        <v>47.506</v>
+        <v>-8.0020000000000007</v>
       </c>
       <c r="AA31">
-        <v>88.256</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40451</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>95.153000000000006</v>
+        <v>7.6669999999999998</v>
       </c>
       <c r="D32">
-        <v>300.24200000000002</v>
+        <v>73.715000000000003</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>23.158000000000001</v>
       </c>
       <c r="F32">
-        <v>221.68799999999999</v>
+        <v>50.645000000000003</v>
       </c>
       <c r="G32">
-        <v>138.364</v>
+        <v>85.704999999999998</v>
       </c>
       <c r="H32">
-        <v>7721.9489999999996</v>
+        <v>2175.15</v>
       </c>
       <c r="I32">
-        <v>107.252</v>
+        <v>37.445</v>
       </c>
       <c r="J32">
-        <v>4767.4949999999999</v>
+        <v>1180.405</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3355,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>150.989</v>
+        <v>37.441000000000003</v>
       </c>
       <c r="O32">
-        <v>5006.1469999999999</v>
+        <v>1241.1179999999999</v>
       </c>
       <c r="P32">
-        <v>4767.4949999999999</v>
+        <v>1187.692</v>
       </c>
       <c r="Q32">
-        <v>15.042</v>
+        <v>-6.556</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40451</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2715.8020000000001</v>
+        <v>934.03200000000004</v>
       </c>
       <c r="U32">
-        <v>49.194000000000003</v>
+        <v>21.797999999999998</v>
       </c>
       <c r="V32">
-        <v>168.13399999999999</v>
+        <v>28.658999999999999</v>
       </c>
       <c r="W32">
-        <v>-108.486</v>
+        <v>-8.7509999999999994</v>
       </c>
       <c r="X32">
-        <v>45.075000000000003</v>
+        <v>-24.401</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>7.2869999999999999</v>
       </c>
       <c r="Z32">
-        <v>-34.314</v>
+        <v>7.12</v>
       </c>
       <c r="AA32">
-        <v>95.153000000000006</v>
+        <v>7.6669999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40543</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>130.41800000000001</v>
+        <v>8.9160000000000004</v>
       </c>
       <c r="D33">
-        <v>310.57499999999999</v>
+        <v>75.111000000000004</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>15.637</v>
       </c>
       <c r="F33">
-        <v>229.203</v>
+        <v>51.088000000000001</v>
       </c>
       <c r="G33">
-        <v>254.702</v>
+        <v>101.107</v>
       </c>
       <c r="H33">
-        <v>7798.69</v>
+        <v>2249.8200000000002</v>
       </c>
       <c r="I33">
-        <v>126.539</v>
+        <v>35.241999999999997</v>
       </c>
       <c r="J33">
-        <v>4761.4549999999999</v>
+        <v>1246.9179999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3438,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>170.75700000000001</v>
+        <v>41.316000000000003</v>
       </c>
       <c r="O33">
-        <v>5028.5959999999995</v>
+        <v>1310.749</v>
       </c>
       <c r="P33">
-        <v>4761.4549999999999</v>
+        <v>1260.008</v>
       </c>
       <c r="Q33">
-        <v>-2.5230000000000001</v>
+        <v>24.952000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40543</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="T33">
-        <v>2770.0940000000001</v>
+        <v>939.07100000000003</v>
       </c>
       <c r="U33">
-        <v>45.378</v>
+        <v>46.75</v>
       </c>
       <c r="V33">
-        <v>189.285</v>
+        <v>30.085000000000001</v>
       </c>
       <c r="W33">
-        <v>-108.795</v>
+        <v>-8.7579999999999991</v>
       </c>
       <c r="X33">
-        <v>-103.874</v>
+        <v>44.078000000000003</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>7.016</v>
       </c>
       <c r="Z33">
-        <v>-18.033999999999999</v>
+        <v>1.042</v>
       </c>
       <c r="AA33">
-        <v>130.41800000000001</v>
+        <v>8.9160000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40633</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>101.462</v>
+        <v>8.3010000000000002</v>
       </c>
       <c r="D34">
-        <v>311.15699999999998</v>
+        <v>76.292000000000002</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>9.3339999999999996</v>
       </c>
       <c r="F34">
-        <v>248.19399999999999</v>
+        <v>51.084000000000003</v>
       </c>
       <c r="G34">
-        <v>115.014</v>
+        <v>92.415999999999997</v>
       </c>
       <c r="H34">
-        <v>7847.9780000000001</v>
+        <v>2253.1170000000002</v>
       </c>
       <c r="I34">
-        <v>101.461</v>
+        <v>34.332999999999998</v>
       </c>
       <c r="J34">
-        <v>4813.6459999999997</v>
+        <v>1246.009</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3518,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-114.995</v>
       </c>
       <c r="N34">
-        <v>146.65799999999999</v>
+        <v>39.244</v>
       </c>
       <c r="O34">
-        <v>5062.5559999999996</v>
+        <v>1305.9739999999999</v>
       </c>
       <c r="P34">
-        <v>4813.6459999999997</v>
+        <v>1250.92</v>
       </c>
       <c r="Q34">
-        <v>6.1070000000000002</v>
+        <v>-4.1950000000000003</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40633</v>
       </c>
       <c r="S34">
-        <v>3624</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>2785.422</v>
+        <v>947.14300000000003</v>
       </c>
       <c r="U34">
-        <v>57.496000000000002</v>
+        <v>42.555</v>
       </c>
       <c r="V34">
-        <v>148.768</v>
+        <v>30.001999999999999</v>
       </c>
       <c r="W34">
-        <v>-109.29900000000001</v>
+        <v>-12.381</v>
       </c>
       <c r="X34">
-        <v>-15.792</v>
+        <v>-13.54</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-11.528</v>
+        <v>-3.077</v>
       </c>
       <c r="AA34">
-        <v>101.462</v>
+        <v>8.3010000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40724</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>94.77</v>
+        <v>10.609</v>
       </c>
       <c r="D35">
-        <v>314.17599999999999</v>
+        <v>80.415999999999997</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="F35">
-        <v>228.44399999999999</v>
+        <v>54.752000000000002</v>
       </c>
       <c r="G35">
-        <v>72.736000000000004</v>
+        <v>76.376999999999995</v>
       </c>
       <c r="H35">
-        <v>8132.5140000000001</v>
+        <v>2310.857</v>
       </c>
       <c r="I35">
-        <v>99.302000000000007</v>
+        <v>32.712000000000003</v>
       </c>
       <c r="J35">
-        <v>5010.4009999999998</v>
+        <v>1090.239</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3601,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-255.94800000000001</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>152.38499999999999</v>
+        <v>139.46</v>
       </c>
       <c r="O35">
-        <v>5358.7020000000002</v>
+        <v>1251.913</v>
       </c>
       <c r="P35">
-        <v>5118.7719999999999</v>
+        <v>1196.9870000000001</v>
       </c>
       <c r="Q35">
-        <v>-25.861999999999998</v>
+        <v>-7.3680000000000003</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40724</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2773.8119999999999</v>
+        <v>1058.944</v>
       </c>
       <c r="U35">
-        <v>38.988</v>
+        <v>35.186999999999998</v>
       </c>
       <c r="V35">
-        <v>169.339</v>
+        <v>35.191000000000003</v>
       </c>
       <c r="W35">
-        <v>-109.523</v>
+        <v>-13.194000000000001</v>
       </c>
       <c r="X35">
-        <v>51.774000000000001</v>
+        <v>32.418999999999997</v>
       </c>
       <c r="Y35">
-        <v>99.858000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-17.395</v>
+        <v>-0.32800000000000001</v>
       </c>
       <c r="AA35">
-        <v>94.77</v>
+        <v>10.609</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40816</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>104.828</v>
+        <v>15.260999999999999</v>
       </c>
       <c r="D36">
-        <v>326.72300000000001</v>
+        <v>85.97</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>61.183999999999997</v>
       </c>
       <c r="F36">
-        <v>238.87100000000001</v>
+        <v>59.758000000000003</v>
       </c>
       <c r="G36">
-        <v>62.944000000000003</v>
+        <v>125.431</v>
       </c>
       <c r="H36">
-        <v>8390.7189999999991</v>
+        <v>2374.2280000000001</v>
       </c>
       <c r="I36">
-        <v>115.056</v>
+        <v>39.890999999999998</v>
       </c>
       <c r="J36">
-        <v>5069.0919999999996</v>
+        <v>1142.222</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3687,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>171.23400000000001</v>
+        <v>148.08000000000001</v>
       </c>
       <c r="O36">
-        <v>5561.9080000000004</v>
+        <v>1312.1590000000001</v>
       </c>
       <c r="P36">
-        <v>5304.7160000000003</v>
+        <v>1250.4110000000001</v>
       </c>
       <c r="Q36">
-        <v>8.8160000000000007</v>
+        <v>-1.292</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40816</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2828.8110000000001</v>
+        <v>1062.069</v>
       </c>
       <c r="U36">
-        <v>47.667000000000002</v>
+        <v>33.895000000000003</v>
       </c>
       <c r="V36">
-        <v>194.06800000000001</v>
+        <v>35.463999999999999</v>
       </c>
       <c r="W36">
-        <v>-115.572</v>
+        <v>-13.21</v>
       </c>
       <c r="X36">
-        <v>8.202</v>
+        <v>36.796999999999997</v>
       </c>
       <c r="Y36">
-        <v>224.52699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-9.9670000000000005</v>
+        <v>4.282</v>
       </c>
       <c r="AA36">
-        <v>104.828</v>
+        <v>15.260999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40908</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>108.087</v>
+        <v>16.277999999999999</v>
       </c>
       <c r="D37">
-        <v>340.209</v>
+        <v>94.438999999999993</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="F37">
-        <v>243.91200000000001</v>
+        <v>67.003</v>
       </c>
       <c r="G37">
-        <v>69.855999999999995</v>
+        <v>86.763999999999996</v>
       </c>
       <c r="H37">
-        <v>8318.43</v>
+        <v>2517.5239999999999</v>
       </c>
       <c r="I37">
-        <v>122.658</v>
+        <v>46.353000000000002</v>
       </c>
       <c r="J37">
-        <v>4855.88</v>
+        <v>1363.6559999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3770,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>174.84</v>
+        <v>54.664000000000001</v>
       </c>
       <c r="O37">
-        <v>5410.4409999999998</v>
+        <v>1443.7629999999999</v>
       </c>
       <c r="P37">
-        <v>5139.7520000000004</v>
+        <v>1377.7950000000001</v>
       </c>
       <c r="Q37">
-        <v>11.071</v>
+        <v>-7.4109999999999996</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40908</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>2239</v>
       </c>
       <c r="T37">
-        <v>2907.989</v>
+        <v>1073.761</v>
       </c>
       <c r="U37">
-        <v>62.277000000000001</v>
+        <v>26.484000000000002</v>
       </c>
       <c r="V37">
-        <v>181.059</v>
+        <v>43.506999999999998</v>
       </c>
       <c r="W37">
-        <v>-116.44</v>
+        <v>-13.242000000000001</v>
       </c>
       <c r="X37">
-        <v>-254.04</v>
+        <v>31.812999999999999</v>
       </c>
       <c r="Y37">
-        <v>276.83300000000003</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="Z37">
-        <v>-2.3170000000000002</v>
+        <v>-0.35099999999999998</v>
       </c>
       <c r="AA37">
-        <v>108.087</v>
+        <v>16.277999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40999</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>112.282</v>
+        <v>20.213999999999999</v>
       </c>
       <c r="D38">
-        <v>338.62</v>
+        <v>93.283000000000001</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>15.414999999999999</v>
       </c>
       <c r="F38">
-        <v>268.18099999999998</v>
+        <v>64.23</v>
       </c>
       <c r="G38">
-        <v>120.533</v>
+        <v>77.263000000000005</v>
       </c>
       <c r="H38">
-        <v>8532.3770000000004</v>
+        <v>2523.136</v>
       </c>
       <c r="I38">
-        <v>111.38200000000001</v>
+        <v>38.029000000000003</v>
       </c>
       <c r="J38">
-        <v>5077.8860000000004</v>
+        <v>1080.1179999999999</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3850,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-198.048</v>
       </c>
       <c r="N38">
-        <v>156.64599999999999</v>
+        <v>338.88600000000002</v>
       </c>
       <c r="O38">
-        <v>5610.683</v>
+        <v>1443.394</v>
       </c>
       <c r="P38">
-        <v>5352.6689999999999</v>
+        <v>1380.9749999999999</v>
       </c>
       <c r="Q38">
-        <v>4.0179999999999998</v>
+        <v>11.090999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40999</v>
       </c>
       <c r="S38">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>2921.694</v>
+        <v>1079.742</v>
       </c>
       <c r="U38">
-        <v>65.745999999999995</v>
+        <v>37.575000000000003</v>
       </c>
       <c r="V38">
-        <v>163.22</v>
+        <v>40.79</v>
       </c>
       <c r="W38">
-        <v>-116.57899999999999</v>
+        <v>-19.001999999999999</v>
       </c>
       <c r="X38">
-        <v>106.051</v>
+        <v>-13.304</v>
       </c>
       <c r="Y38">
-        <v>274.78300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-164.09800000000001</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="AA38">
-        <v>112.282</v>
+        <v>20.213999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41090</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>108.179</v>
+        <v>22.413</v>
       </c>
       <c r="D39">
-        <v>337.495</v>
+        <v>97.649000000000001</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>15.976000000000001</v>
       </c>
       <c r="F39">
-        <v>240.52</v>
+        <v>69.744</v>
       </c>
       <c r="G39">
-        <v>97.93</v>
+        <v>238.71199999999999</v>
       </c>
       <c r="H39">
-        <v>8549.4860000000008</v>
+        <v>2708.3429999999998</v>
       </c>
       <c r="I39">
-        <v>116.069</v>
+        <v>47.122999999999998</v>
       </c>
       <c r="J39">
-        <v>5239.7830000000004</v>
+        <v>1044.866</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3933,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-192.50800000000001</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>161.78100000000001</v>
+        <v>326.26100000000002</v>
       </c>
       <c r="O39">
-        <v>5774.8559999999998</v>
+        <v>1397.7</v>
       </c>
       <c r="P39">
-        <v>5509.9570000000003</v>
+        <v>1324.0039999999999</v>
       </c>
       <c r="Q39">
-        <v>27.196999999999999</v>
+        <v>147.92699999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41090</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2774.63</v>
+        <v>1310.643</v>
       </c>
       <c r="U39">
-        <v>93.296999999999997</v>
+        <v>185.50200000000001</v>
       </c>
       <c r="V39">
-        <v>189.256</v>
+        <v>51.831000000000003</v>
       </c>
       <c r="W39">
-        <v>-117.197</v>
+        <v>-20.827000000000002</v>
       </c>
       <c r="X39">
-        <v>-101.486</v>
+        <v>145.61600000000001</v>
       </c>
       <c r="Y39">
-        <v>270.17399999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-6.4409999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="AA39">
-        <v>108.179</v>
+        <v>22.413</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41182</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>102.911</v>
+        <v>38.606000000000002</v>
       </c>
       <c r="D40">
-        <v>332.29</v>
+        <v>112.645</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>10.93</v>
       </c>
       <c r="F40">
-        <v>236.392</v>
+        <v>78.665000000000006</v>
       </c>
       <c r="G40">
-        <v>61.750999999999998</v>
+        <v>85.796999999999997</v>
       </c>
       <c r="H40">
-        <v>8529.8940000000002</v>
+        <v>3012.922</v>
       </c>
       <c r="I40">
-        <v>132.25700000000001</v>
+        <v>49.609000000000002</v>
       </c>
       <c r="J40">
-        <v>5200.5559999999996</v>
+        <v>1268.873</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4019,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>178.357</v>
+        <v>386.47</v>
       </c>
       <c r="O40">
-        <v>5784.3760000000002</v>
+        <v>1682.77</v>
       </c>
       <c r="P40">
-        <v>5472.4309999999996</v>
+        <v>1605.7339999999999</v>
       </c>
       <c r="Q40">
-        <v>-36.179000000000002</v>
+        <v>-141.89400000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41182</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2745.518</v>
+        <v>1330.152</v>
       </c>
       <c r="U40">
-        <v>56.396999999999998</v>
+        <v>43.607999999999997</v>
       </c>
       <c r="V40">
-        <v>202.81700000000001</v>
+        <v>60.34</v>
       </c>
       <c r="W40">
-        <v>-116.318</v>
+        <v>-20.864000000000001</v>
       </c>
       <c r="X40">
-        <v>-187.70099999999999</v>
+        <v>106.92</v>
       </c>
       <c r="Y40">
-        <v>271.875</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-3.1</v>
+        <v>-0.35099999999999998</v>
       </c>
       <c r="AA40">
-        <v>102.911</v>
+        <v>38.606000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41274</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>114.633</v>
+        <v>36.076000000000001</v>
       </c>
       <c r="D41">
-        <v>348.62900000000002</v>
+        <v>116.678</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>23.289000000000001</v>
       </c>
       <c r="F41">
-        <v>249.11799999999999</v>
+        <v>80.367999999999995</v>
       </c>
       <c r="G41">
-        <v>80.573999999999998</v>
+        <v>82.593000000000004</v>
       </c>
       <c r="H41">
-        <v>8761.1039999999994</v>
+        <v>3223.4769999999999</v>
       </c>
       <c r="I41">
-        <v>153.83799999999999</v>
+        <v>52.298999999999999</v>
       </c>
       <c r="J41">
-        <v>5388.7250000000004</v>
+        <v>1577.5989999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4102,2701 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>200.36500000000001</v>
+        <v>68.941000000000003</v>
       </c>
       <c r="O41">
-        <v>5993.2820000000002</v>
+        <v>1678.146</v>
       </c>
       <c r="P41">
-        <v>5655.8180000000002</v>
+        <v>1596.653</v>
       </c>
       <c r="Q41">
-        <v>18.823</v>
+        <v>-12.823</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41274</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>2283</v>
       </c>
       <c r="T41">
-        <v>2767.8220000000001</v>
+        <v>1545.3309999999999</v>
       </c>
       <c r="U41">
-        <v>74.802999999999997</v>
+        <v>30.785</v>
       </c>
       <c r="V41">
-        <v>191.19399999999999</v>
+        <v>62.917999999999999</v>
       </c>
       <c r="W41">
-        <v>-116.185</v>
+        <v>-27.594000000000001</v>
       </c>
       <c r="X41">
-        <v>79.605999999999995</v>
+        <v>156.12799999999999</v>
       </c>
       <c r="Y41">
-        <v>267.09300000000002</v>
+        <v>3.8260000000000001</v>
       </c>
       <c r="Z41">
-        <v>-4.0250000000000004</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AA41">
-        <v>114.633</v>
+        <v>36.076000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41364</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>31.425000000000001</v>
+      </c>
+      <c r="D42">
+        <v>121.94499999999999</v>
+      </c>
+      <c r="E42">
+        <v>9.0960000000000001</v>
+      </c>
+      <c r="F42">
+        <v>85.146000000000001</v>
+      </c>
+      <c r="G42">
+        <v>64.828000000000003</v>
+      </c>
+      <c r="H42">
+        <v>3229.096</v>
+      </c>
+      <c r="I42">
+        <v>45.435000000000002</v>
+      </c>
+      <c r="J42">
+        <v>1383.643</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-74.912000000000006</v>
+      </c>
+      <c r="N42">
+        <v>259.34699999999998</v>
+      </c>
+      <c r="O42">
+        <v>1675.944</v>
+      </c>
+      <c r="P42">
+        <v>1597.5550000000001</v>
+      </c>
+      <c r="Q42">
+        <v>4.79</v>
+      </c>
+      <c r="R42">
+        <v>41364</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1553.152</v>
+      </c>
+      <c r="U42">
+        <v>35.575000000000003</v>
+      </c>
+      <c r="V42">
+        <v>51.116</v>
+      </c>
+      <c r="W42">
+        <v>-27.73</v>
+      </c>
+      <c r="X42">
+        <v>-22.981000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="AA42">
+        <v>31.425000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>34.466000000000001</v>
+      </c>
+      <c r="D43">
+        <v>129.16</v>
+      </c>
+      <c r="E43">
+        <v>3.258</v>
+      </c>
+      <c r="F43">
+        <v>92.813000000000002</v>
+      </c>
+      <c r="G43">
+        <v>240.37899999999999</v>
+      </c>
+      <c r="H43">
+        <v>3432.616</v>
+      </c>
+      <c r="I43">
+        <v>46.981999999999999</v>
+      </c>
+      <c r="J43">
+        <v>1763.9849999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>52.018999999999998</v>
+      </c>
+      <c r="O43">
+        <v>1842.825</v>
+      </c>
+      <c r="P43">
+        <v>1769.0219999999999</v>
+      </c>
+      <c r="Q43">
+        <v>171.357</v>
+      </c>
+      <c r="R43">
+        <v>41455</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1589.7909999999999</v>
+      </c>
+      <c r="U43">
+        <v>206.93199999999999</v>
+      </c>
+      <c r="V43">
+        <v>75.435000000000002</v>
+      </c>
+      <c r="W43">
+        <v>-44.488</v>
+      </c>
+      <c r="X43">
+        <v>139.643</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>34.466000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>29.245000000000001</v>
+      </c>
+      <c r="D44">
+        <v>136.51599999999999</v>
+      </c>
+      <c r="E44">
+        <v>7.9279999999999999</v>
+      </c>
+      <c r="F44">
+        <v>96.84</v>
+      </c>
+      <c r="G44">
+        <v>119.96</v>
+      </c>
+      <c r="H44">
+        <v>3518.239</v>
+      </c>
+      <c r="I44">
+        <v>58.247999999999998</v>
+      </c>
+      <c r="J44">
+        <v>1731.539</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>88.721000000000004</v>
+      </c>
+      <c r="O44">
+        <v>1849.3589999999999</v>
+      </c>
+      <c r="P44">
+        <v>1762.0119999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-125.233</v>
+      </c>
+      <c r="R44">
+        <v>41547</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1668.88</v>
+      </c>
+      <c r="U44">
+        <v>81.698999999999998</v>
+      </c>
+      <c r="V44">
+        <v>72.033000000000001</v>
+      </c>
+      <c r="W44">
+        <v>-44.494</v>
+      </c>
+      <c r="X44">
+        <v>-164.029</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>29.245000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>76.94</v>
+      </c>
+      <c r="D45">
+        <v>144.64500000000001</v>
+      </c>
+      <c r="E45">
+        <v>26.277999999999999</v>
+      </c>
+      <c r="F45">
+        <v>99.814999999999998</v>
+      </c>
+      <c r="G45">
+        <v>205.75299999999999</v>
+      </c>
+      <c r="H45">
+        <v>3977.14</v>
+      </c>
+      <c r="I45">
+        <v>60.600999999999999</v>
+      </c>
+      <c r="J45">
+        <v>1946.6469999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>64.956000000000003</v>
+      </c>
+      <c r="O45">
+        <v>2045.2449999999999</v>
+      </c>
+      <c r="P45">
+        <v>1952.4069999999999</v>
+      </c>
+      <c r="Q45">
+        <v>45.024000000000001</v>
+      </c>
+      <c r="R45">
+        <v>41639</v>
+      </c>
+      <c r="S45">
+        <v>2584</v>
+      </c>
+      <c r="T45">
+        <v>1931.895</v>
+      </c>
+      <c r="U45">
+        <v>126.723</v>
+      </c>
+      <c r="V45">
+        <v>72.674999999999997</v>
+      </c>
+      <c r="W45">
+        <v>-46.302</v>
+      </c>
+      <c r="X45">
+        <v>239.02199999999999</v>
+      </c>
+      <c r="Y45">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="Z45">
+        <v>-0.39</v>
+      </c>
+      <c r="AA45">
+        <v>76.94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="D46">
+        <v>155.006</v>
+      </c>
+      <c r="E46">
+        <v>8.9659999999999993</v>
+      </c>
+      <c r="F46">
+        <v>106.901</v>
+      </c>
+      <c r="G46">
+        <v>86.287999999999997</v>
+      </c>
+      <c r="H46">
+        <v>4123.491</v>
+      </c>
+      <c r="I46">
+        <v>52.886000000000003</v>
+      </c>
+      <c r="J46">
+        <v>2109.8780000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-127.881</v>
+      </c>
+      <c r="N46">
+        <v>55.969000000000001</v>
+      </c>
+      <c r="O46">
+        <v>2200.3069999999998</v>
+      </c>
+      <c r="P46">
+        <v>2112.9609999999998</v>
+      </c>
+      <c r="Q46">
+        <v>-79.707999999999998</v>
+      </c>
+      <c r="R46">
+        <v>41729</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1923.184</v>
+      </c>
+      <c r="U46">
+        <v>47.015000000000001</v>
+      </c>
+      <c r="V46">
+        <v>64.572000000000003</v>
+      </c>
+      <c r="W46">
+        <v>-46.347000000000001</v>
+      </c>
+      <c r="X46">
+        <v>112.328</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>37.340000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>41.664999999999999</v>
+      </c>
+      <c r="D47">
+        <v>163.328</v>
+      </c>
+      <c r="E47">
+        <v>12.64</v>
+      </c>
+      <c r="F47">
+        <v>117.005</v>
+      </c>
+      <c r="G47">
+        <v>91.927000000000007</v>
+      </c>
+      <c r="H47">
+        <v>4208.8900000000003</v>
+      </c>
+      <c r="I47">
+        <v>65.539000000000001</v>
+      </c>
+      <c r="J47">
+        <v>2163.627</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>68.733000000000004</v>
+      </c>
+      <c r="O47">
+        <v>2278.1819999999998</v>
+      </c>
+      <c r="P47">
+        <v>2166.8209999999999</v>
+      </c>
+      <c r="Q47">
+        <v>6.93</v>
+      </c>
+      <c r="R47">
+        <v>41820</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1930.7080000000001</v>
+      </c>
+      <c r="U47">
+        <v>53.945</v>
+      </c>
+      <c r="V47">
+        <v>103.187</v>
+      </c>
+      <c r="W47">
+        <v>-54.527000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-39.423000000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>41.664999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>54.228000000000002</v>
+      </c>
+      <c r="D48">
+        <v>171.84399999999999</v>
+      </c>
+      <c r="E48">
+        <v>12.282999999999999</v>
+      </c>
+      <c r="F48">
+        <v>125.184</v>
+      </c>
+      <c r="G48">
+        <v>95.021000000000001</v>
+      </c>
+      <c r="H48">
+        <v>4225.8950000000004</v>
+      </c>
+      <c r="I48">
+        <v>73.528000000000006</v>
+      </c>
+      <c r="J48">
+        <v>2178.8809999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>75.346000000000004</v>
+      </c>
+      <c r="O48">
+        <v>2292.297</v>
+      </c>
+      <c r="P48">
+        <v>2180.6990000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-4.7290000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41912</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1933.598</v>
+      </c>
+      <c r="U48">
+        <v>49.216000000000001</v>
+      </c>
+      <c r="V48">
+        <v>88.805000000000007</v>
+      </c>
+      <c r="W48">
+        <v>-54.536000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-50.034999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>54.228000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>45.122</v>
+      </c>
+      <c r="D49">
+        <v>167.92500000000001</v>
+      </c>
+      <c r="E49">
+        <v>31.946000000000002</v>
+      </c>
+      <c r="F49">
+        <v>116.34399999999999</v>
+      </c>
+      <c r="G49">
+        <v>128.17699999999999</v>
+      </c>
+      <c r="H49">
+        <v>4381.9870000000001</v>
+      </c>
+      <c r="I49">
+        <v>65.521000000000001</v>
+      </c>
+      <c r="J49">
+        <v>2353.297</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>66.192999999999998</v>
+      </c>
+      <c r="O49">
+        <v>2470.0039999999999</v>
+      </c>
+      <c r="P49">
+        <v>2354.0100000000002</v>
+      </c>
+      <c r="Q49">
+        <v>-1.5529999999999999</v>
+      </c>
+      <c r="R49">
+        <v>42004</v>
+      </c>
+      <c r="S49">
+        <v>2643</v>
+      </c>
+      <c r="T49">
+        <v>1911.9829999999999</v>
+      </c>
+      <c r="U49">
+        <v>47.662999999999997</v>
+      </c>
+      <c r="V49">
+        <v>81.016999999999996</v>
+      </c>
+      <c r="W49">
+        <v>-54.680999999999997</v>
+      </c>
+      <c r="X49">
+        <v>125.437</v>
+      </c>
+      <c r="Y49">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>45.122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>53.741999999999997</v>
+      </c>
+      <c r="D50">
+        <v>175.804</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>124.76300000000001</v>
+      </c>
+      <c r="G50">
+        <v>84.477999999999994</v>
+      </c>
+      <c r="H50">
+        <v>4464.1450000000004</v>
+      </c>
+      <c r="I50">
+        <v>71.552999999999997</v>
+      </c>
+      <c r="J50">
+        <v>2431.9119999999998</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-228.87799999999999</v>
+      </c>
+      <c r="N50">
+        <v>78.784000000000006</v>
+      </c>
+      <c r="O50">
+        <v>2557.09</v>
+      </c>
+      <c r="P50">
+        <v>2439.143</v>
+      </c>
+      <c r="Q50">
+        <v>-2.359</v>
+      </c>
+      <c r="R50">
+        <v>42094</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1907.0550000000001</v>
+      </c>
+      <c r="U50">
+        <v>45.304000000000002</v>
+      </c>
+      <c r="V50">
+        <v>87.438999999999993</v>
+      </c>
+      <c r="W50">
+        <v>-54.731999999999999</v>
+      </c>
+      <c r="X50">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>53.741999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>55.338999999999999</v>
+      </c>
+      <c r="D51">
+        <v>188.86099999999999</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>132.815</v>
+      </c>
+      <c r="G51">
+        <v>206.928</v>
+      </c>
+      <c r="H51">
+        <v>4833.75</v>
+      </c>
+      <c r="I51">
+        <v>69.378</v>
+      </c>
+      <c r="J51">
+        <v>2288.4560000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>73.156000000000006</v>
+      </c>
+      <c r="O51">
+        <v>2410.4720000000002</v>
+      </c>
+      <c r="P51">
+        <v>2292.2339999999999</v>
+      </c>
+      <c r="Q51">
+        <v>130.589</v>
+      </c>
+      <c r="R51">
+        <v>42185</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2423.2779999999998</v>
+      </c>
+      <c r="U51">
+        <v>175.893</v>
+      </c>
+      <c r="V51">
+        <v>95.847999999999999</v>
+      </c>
+      <c r="W51">
+        <v>-68.741</v>
+      </c>
+      <c r="X51">
+        <v>196.01900000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>55.338999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>71.718000000000004</v>
+      </c>
+      <c r="D52">
+        <v>200.9</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>148.13399999999999</v>
+      </c>
+      <c r="G52">
+        <v>1347.319</v>
+      </c>
+      <c r="H52">
+        <v>6002.8360000000002</v>
+      </c>
+      <c r="I52">
+        <v>76.302999999999997</v>
+      </c>
+      <c r="J52">
+        <v>3467.799</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>96.706000000000003</v>
+      </c>
+      <c r="O52">
+        <v>3615.4960000000001</v>
+      </c>
+      <c r="P52">
+        <v>3488.2020000000002</v>
+      </c>
+      <c r="Q52">
+        <v>939.63900000000001</v>
+      </c>
+      <c r="R52">
+        <v>42277</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2387.34</v>
+      </c>
+      <c r="U52">
+        <v>1115.5319999999999</v>
+      </c>
+      <c r="V52">
+        <v>102.994</v>
+      </c>
+      <c r="W52">
+        <v>-72.602999999999994</v>
+      </c>
+      <c r="X52">
+        <v>1070.29</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-0.48799999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>71.718000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>8.6750000000000007</v>
+      </c>
+      <c r="D53">
+        <v>229.05600000000001</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>113.038</v>
+      </c>
+      <c r="G53">
+        <v>113.738</v>
+      </c>
+      <c r="H53">
+        <v>6071.4070000000002</v>
+      </c>
+      <c r="I53">
+        <v>82.692999999999998</v>
+      </c>
+      <c r="J53">
+        <v>3542.6120000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>84.915999999999997</v>
+      </c>
+      <c r="O53">
+        <v>3698.8029999999999</v>
+      </c>
+      <c r="P53">
+        <v>3542.6120000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-1039.7329999999999</v>
+      </c>
+      <c r="R53">
+        <v>42369</v>
+      </c>
+      <c r="S53">
+        <v>3209</v>
+      </c>
+      <c r="T53">
+        <v>2372.6039999999998</v>
+      </c>
+      <c r="U53">
+        <v>75.799000000000007</v>
+      </c>
+      <c r="V53">
+        <v>81.048000000000002</v>
+      </c>
+      <c r="W53">
+        <v>-73.225999999999999</v>
+      </c>
+      <c r="X53">
+        <v>18.449000000000002</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>42.134</v>
+      </c>
+      <c r="AA53">
+        <v>8.6750000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>82.591999999999999</v>
+      </c>
+      <c r="D54">
+        <v>232.233</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>166.81</v>
+      </c>
+      <c r="G54">
+        <v>183.41900000000001</v>
+      </c>
+      <c r="H54">
+        <v>6291.4189999999999</v>
+      </c>
+      <c r="I54">
+        <v>77.108000000000004</v>
+      </c>
+      <c r="J54">
+        <v>3647.1880000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-52.497999999999998</v>
+      </c>
+      <c r="N54">
+        <v>146.816</v>
+      </c>
+      <c r="O54">
+        <v>3866.0340000000001</v>
+      </c>
+      <c r="P54">
+        <v>3716.8960000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-26.045999999999999</v>
+      </c>
+      <c r="R54">
+        <v>42460</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2425.3850000000002</v>
+      </c>
+      <c r="U54">
+        <v>49.753</v>
+      </c>
+      <c r="V54">
+        <v>95.465999999999994</v>
+      </c>
+      <c r="W54">
+        <v>-73.826999999999998</v>
+      </c>
+      <c r="X54">
+        <v>137.15600000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-4.476</v>
+      </c>
+      <c r="AA54">
+        <v>82.591999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>83.043999999999997</v>
+      </c>
+      <c r="D55">
+        <v>247.631</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>181.26</v>
+      </c>
+      <c r="G55">
+        <v>110.404</v>
+      </c>
+      <c r="H55">
+        <v>6458.9979999999996</v>
+      </c>
+      <c r="I55">
+        <v>91.188000000000002</v>
+      </c>
+      <c r="J55">
+        <v>3850.1030000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>91.188000000000002</v>
+      </c>
+      <c r="O55">
+        <v>4015.7809999999999</v>
+      </c>
+      <c r="P55">
+        <v>3850.1030000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-8.6950000000000003</v>
+      </c>
+      <c r="R55">
+        <v>42551</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2443.2170000000001</v>
+      </c>
+      <c r="U55">
+        <v>41.058</v>
+      </c>
+      <c r="V55">
+        <v>144.20400000000001</v>
+      </c>
+      <c r="W55">
+        <v>-97.686999999999998</v>
+      </c>
+      <c r="X55">
+        <v>-5.5750000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-13.515000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>83.043999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>118.08799999999999</v>
+      </c>
+      <c r="D56">
+        <v>260.80799999999999</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>192.441</v>
+      </c>
+      <c r="G56">
+        <v>111.411</v>
+      </c>
+      <c r="H56">
+        <v>6742.0559999999996</v>
+      </c>
+      <c r="I56">
+        <v>102.47</v>
+      </c>
+      <c r="J56">
+        <v>3898.6480000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>235.47</v>
+      </c>
+      <c r="O56">
+        <v>4212.6840000000002</v>
+      </c>
+      <c r="P56">
+        <v>4031.6480000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-22.366</v>
+      </c>
+      <c r="R56">
+        <v>42643</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2529.3719999999998</v>
+      </c>
+      <c r="U56">
+        <v>18.692</v>
+      </c>
+      <c r="V56">
+        <v>146.489</v>
+      </c>
+      <c r="W56">
+        <v>-98.116</v>
+      </c>
+      <c r="X56">
+        <v>129.46299999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>4.2919999999999998</v>
+      </c>
+      <c r="AA56">
+        <v>118.08799999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>82.403000000000006</v>
+      </c>
+      <c r="D57">
+        <v>264.09800000000001</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>218.75700000000001</v>
+      </c>
+      <c r="G57">
+        <v>134.53800000000001</v>
+      </c>
+      <c r="H57">
+        <v>7091.4459999999999</v>
+      </c>
+      <c r="I57">
+        <v>101.38800000000001</v>
+      </c>
+      <c r="J57">
+        <v>4308.67</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>101.38800000000001</v>
+      </c>
+      <c r="O57">
+        <v>4495.28</v>
+      </c>
+      <c r="P57">
+        <v>4308.67</v>
+      </c>
+      <c r="Q57">
+        <v>25.166</v>
+      </c>
+      <c r="R57">
+        <v>42735</v>
+      </c>
+      <c r="S57">
+        <v>3287</v>
+      </c>
+      <c r="T57">
+        <v>2596.1660000000002</v>
+      </c>
+      <c r="U57">
+        <v>43.857999999999997</v>
+      </c>
+      <c r="V57">
+        <v>153.10400000000001</v>
+      </c>
+      <c r="W57">
+        <v>-98.188000000000002</v>
+      </c>
+      <c r="X57">
+        <v>199.78700000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>2.411</v>
+      </c>
+      <c r="AA57">
+        <v>82.403000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>82.281999999999996</v>
+      </c>
+      <c r="D58">
+        <v>266.58699999999999</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>196.02199999999999</v>
+      </c>
+      <c r="G58">
+        <v>97.144999999999996</v>
+      </c>
+      <c r="H58">
+        <v>7034.357</v>
+      </c>
+      <c r="I58">
+        <v>77.105999999999995</v>
+      </c>
+      <c r="J58">
+        <v>4292.5280000000002</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-187.916</v>
+      </c>
+      <c r="N58">
+        <v>77.105999999999995</v>
+      </c>
+      <c r="O58">
+        <v>4448.5420000000004</v>
+      </c>
+      <c r="P58">
+        <v>4292.5280000000002</v>
+      </c>
+      <c r="Q58">
+        <v>-16.2</v>
+      </c>
+      <c r="R58">
+        <v>42825</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2585.8150000000001</v>
+      </c>
+      <c r="U58">
+        <v>29.311</v>
+      </c>
+      <c r="V58">
+        <v>113.121</v>
+      </c>
+      <c r="W58">
+        <v>-98.212000000000003</v>
+      </c>
+      <c r="X58">
+        <v>-127.578</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-0.93799999999999994</v>
+      </c>
+      <c r="AA58">
+        <v>82.281999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>87.006</v>
+      </c>
+      <c r="D59">
+        <v>279.84100000000001</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>208.74199999999999</v>
+      </c>
+      <c r="G59">
+        <v>97.206000000000003</v>
+      </c>
+      <c r="H59">
+        <v>7037.4629999999997</v>
+      </c>
+      <c r="I59">
+        <v>92.677999999999997</v>
+      </c>
+      <c r="J59">
+        <v>4284.7280000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>98.677999999999997</v>
+      </c>
+      <c r="O59">
+        <v>4458.78</v>
+      </c>
+      <c r="P59">
+        <v>4290.7280000000001</v>
+      </c>
+      <c r="Q59">
+        <v>6.87</v>
+      </c>
+      <c r="R59">
+        <v>42916</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2578.683</v>
+      </c>
+      <c r="U59">
+        <v>31.648</v>
+      </c>
+      <c r="V59">
+        <v>175.928</v>
+      </c>
+      <c r="W59">
+        <v>-98.256</v>
+      </c>
+      <c r="X59">
+        <v>-124.64700000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-1.151</v>
+      </c>
+      <c r="AA59">
+        <v>87.006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>93.763999999999996</v>
+      </c>
+      <c r="D60">
+        <v>288.14600000000002</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>211.44399999999999</v>
+      </c>
+      <c r="G60">
+        <v>129.81899999999999</v>
+      </c>
+      <c r="H60">
+        <v>7086.9549999999999</v>
+      </c>
+      <c r="I60">
+        <v>114.247</v>
+      </c>
+      <c r="J60">
+        <v>4289.442</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>139.24700000000001</v>
+      </c>
+      <c r="O60">
+        <v>4513.2299999999996</v>
+      </c>
+      <c r="P60">
+        <v>4314.442</v>
+      </c>
+      <c r="Q60">
+        <v>32.597000000000001</v>
+      </c>
+      <c r="R60">
+        <v>43008</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2573.7249999999999</v>
+      </c>
+      <c r="U60">
+        <v>63.731999999999999</v>
+      </c>
+      <c r="V60">
+        <v>160.58000000000001</v>
+      </c>
+      <c r="W60">
+        <v>-98.286000000000001</v>
+      </c>
+      <c r="X60">
+        <v>-89.786000000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-0.35099999999999998</v>
+      </c>
+      <c r="AA60">
+        <v>93.763999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>215.96100000000001</v>
+      </c>
+      <c r="D61">
+        <v>285.76600000000002</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>227.39500000000001</v>
+      </c>
+      <c r="G61">
+        <v>145.017</v>
+      </c>
+      <c r="H61">
+        <v>7460.9530000000004</v>
+      </c>
+      <c r="I61">
+        <v>96.087000000000003</v>
+      </c>
+      <c r="J61">
+        <v>4554.2259999999997</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>101.90300000000001</v>
+      </c>
+      <c r="O61">
+        <v>4737.1459999999997</v>
+      </c>
+      <c r="P61">
+        <v>4554.2259999999997</v>
+      </c>
+      <c r="Q61">
+        <v>5.0350000000000001</v>
+      </c>
+      <c r="R61">
+        <v>43100</v>
+      </c>
+      <c r="S61">
+        <v>3380</v>
+      </c>
+      <c r="T61">
+        <v>2723.8069999999998</v>
+      </c>
+      <c r="U61">
+        <v>55.683</v>
+      </c>
+      <c r="V61">
+        <v>147.74600000000001</v>
+      </c>
+      <c r="W61">
+        <v>-98.286000000000001</v>
+      </c>
+      <c r="X61">
+        <v>126.017</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-14.923</v>
+      </c>
+      <c r="AA61">
+        <v>215.96100000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>88.256</v>
+      </c>
+      <c r="D62">
+        <v>289.08199999999999</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>210.72200000000001</v>
+      </c>
+      <c r="G62">
+        <v>115.352</v>
+      </c>
+      <c r="H62">
+        <v>7470.6239999999998</v>
+      </c>
+      <c r="I62">
+        <v>108.931</v>
+      </c>
+      <c r="J62">
+        <v>4514.3630000000003</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-226.66800000000001</v>
+      </c>
+      <c r="N62">
+        <v>152.20400000000001</v>
+      </c>
+      <c r="O62">
+        <v>4753.9780000000001</v>
+      </c>
+      <c r="P62">
+        <v>4514.3630000000003</v>
+      </c>
+      <c r="Q62">
+        <v>-31.98</v>
+      </c>
+      <c r="R62">
+        <v>43190</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2716.6460000000002</v>
+      </c>
+      <c r="U62">
+        <v>35.527000000000001</v>
+      </c>
+      <c r="V62">
+        <v>171.608</v>
+      </c>
+      <c r="W62">
+        <v>-98.326999999999998</v>
+      </c>
+      <c r="X62">
+        <v>-172.66</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>47.506</v>
+      </c>
+      <c r="AA62">
+        <v>88.256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>95.153000000000006</v>
+      </c>
+      <c r="D63">
+        <v>300.24200000000002</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>221.68799999999999</v>
+      </c>
+      <c r="G63">
+        <v>138.364</v>
+      </c>
+      <c r="H63">
+        <v>7721.9489999999996</v>
+      </c>
+      <c r="I63">
+        <v>107.252</v>
+      </c>
+      <c r="J63">
+        <v>4767.4949999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>150.989</v>
+      </c>
+      <c r="O63">
+        <v>5006.1469999999999</v>
+      </c>
+      <c r="P63">
+        <v>4767.4949999999999</v>
+      </c>
+      <c r="Q63">
+        <v>15.042</v>
+      </c>
+      <c r="R63">
+        <v>43281</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2715.8020000000001</v>
+      </c>
+      <c r="U63">
+        <v>49.194000000000003</v>
+      </c>
+      <c r="V63">
+        <v>168.13399999999999</v>
+      </c>
+      <c r="W63">
+        <v>-108.486</v>
+      </c>
+      <c r="X63">
+        <v>45.075000000000003</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-34.314</v>
+      </c>
+      <c r="AA63">
+        <v>95.153000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>130.41800000000001</v>
+      </c>
+      <c r="D64">
+        <v>310.57499999999999</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>229.203</v>
+      </c>
+      <c r="G64">
+        <v>254.702</v>
+      </c>
+      <c r="H64">
+        <v>7798.69</v>
+      </c>
+      <c r="I64">
+        <v>126.539</v>
+      </c>
+      <c r="J64">
+        <v>4761.4549999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>170.75700000000001</v>
+      </c>
+      <c r="O64">
+        <v>5028.5959999999995</v>
+      </c>
+      <c r="P64">
+        <v>4761.4549999999999</v>
+      </c>
+      <c r="Q64">
+        <v>-2.5230000000000001</v>
+      </c>
+      <c r="R64">
+        <v>43373</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2770.0940000000001</v>
+      </c>
+      <c r="U64">
+        <v>45.378</v>
+      </c>
+      <c r="V64">
+        <v>189.285</v>
+      </c>
+      <c r="W64">
+        <v>-108.795</v>
+      </c>
+      <c r="X64">
+        <v>-103.874</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-18.033999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>130.41800000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>101.462</v>
+      </c>
+      <c r="D65">
+        <v>311.15699999999998</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>248.19399999999999</v>
+      </c>
+      <c r="G65">
+        <v>115.014</v>
+      </c>
+      <c r="H65">
+        <v>7847.9780000000001</v>
+      </c>
+      <c r="I65">
+        <v>101.461</v>
+      </c>
+      <c r="J65">
+        <v>4813.6459999999997</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>146.65799999999999</v>
+      </c>
+      <c r="O65">
+        <v>5062.5559999999996</v>
+      </c>
+      <c r="P65">
+        <v>4813.6459999999997</v>
+      </c>
+      <c r="Q65">
+        <v>6.1070000000000002</v>
+      </c>
+      <c r="R65">
+        <v>43465</v>
+      </c>
+      <c r="S65">
+        <v>3624</v>
+      </c>
+      <c r="T65">
+        <v>2785.422</v>
+      </c>
+      <c r="U65">
+        <v>57.496000000000002</v>
+      </c>
+      <c r="V65">
+        <v>148.768</v>
+      </c>
+      <c r="W65">
+        <v>-109.29900000000001</v>
+      </c>
+      <c r="X65">
+        <v>-15.792</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-11.528</v>
+      </c>
+      <c r="AA65">
+        <v>101.462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>94.77</v>
+      </c>
+      <c r="D66">
+        <v>314.17599999999999</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>228.44399999999999</v>
+      </c>
+      <c r="G66">
+        <v>72.736000000000004</v>
+      </c>
+      <c r="H66">
+        <v>8132.5140000000001</v>
+      </c>
+      <c r="I66">
+        <v>99.302000000000007</v>
+      </c>
+      <c r="J66">
+        <v>5010.4009999999998</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-255.94800000000001</v>
+      </c>
+      <c r="N66">
+        <v>152.38499999999999</v>
+      </c>
+      <c r="O66">
+        <v>5358.7020000000002</v>
+      </c>
+      <c r="P66">
+        <v>5118.7719999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-25.861999999999998</v>
+      </c>
+      <c r="R66">
+        <v>43555</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2773.8119999999999</v>
+      </c>
+      <c r="U66">
+        <v>38.988</v>
+      </c>
+      <c r="V66">
+        <v>169.339</v>
+      </c>
+      <c r="W66">
+        <v>-109.523</v>
+      </c>
+      <c r="X66">
+        <v>51.774000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>99.858000000000004</v>
+      </c>
+      <c r="Z66">
+        <v>-17.395</v>
+      </c>
+      <c r="AA66">
+        <v>94.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>104.828</v>
+      </c>
+      <c r="D67">
+        <v>326.72300000000001</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>238.87100000000001</v>
+      </c>
+      <c r="G67">
+        <v>62.944000000000003</v>
+      </c>
+      <c r="H67">
+        <v>8390.7189999999991</v>
+      </c>
+      <c r="I67">
+        <v>115.056</v>
+      </c>
+      <c r="J67">
+        <v>5069.0919999999996</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>171.23400000000001</v>
+      </c>
+      <c r="O67">
+        <v>5561.9080000000004</v>
+      </c>
+      <c r="P67">
+        <v>5304.7160000000003</v>
+      </c>
+      <c r="Q67">
+        <v>8.8160000000000007</v>
+      </c>
+      <c r="R67">
+        <v>43646</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2828.8110000000001</v>
+      </c>
+      <c r="U67">
+        <v>47.667000000000002</v>
+      </c>
+      <c r="V67">
+        <v>194.06800000000001</v>
+      </c>
+      <c r="W67">
+        <v>-115.572</v>
+      </c>
+      <c r="X67">
+        <v>8.202</v>
+      </c>
+      <c r="Y67">
+        <v>224.52699999999999</v>
+      </c>
+      <c r="Z67">
+        <v>-9.9670000000000005</v>
+      </c>
+      <c r="AA67">
+        <v>104.828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>108.087</v>
+      </c>
+      <c r="D68">
+        <v>340.209</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>243.91200000000001</v>
+      </c>
+      <c r="G68">
+        <v>69.855999999999995</v>
+      </c>
+      <c r="H68">
+        <v>8318.43</v>
+      </c>
+      <c r="I68">
+        <v>122.658</v>
+      </c>
+      <c r="J68">
+        <v>4855.88</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>174.84</v>
+      </c>
+      <c r="O68">
+        <v>5410.4409999999998</v>
+      </c>
+      <c r="P68">
+        <v>5139.7520000000004</v>
+      </c>
+      <c r="Q68">
+        <v>11.071</v>
+      </c>
+      <c r="R68">
+        <v>43738</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2907.989</v>
+      </c>
+      <c r="U68">
+        <v>62.277000000000001</v>
+      </c>
+      <c r="V68">
+        <v>181.059</v>
+      </c>
+      <c r="W68">
+        <v>-116.44</v>
+      </c>
+      <c r="X68">
+        <v>-254.04</v>
+      </c>
+      <c r="Y68">
+        <v>276.83300000000003</v>
+      </c>
+      <c r="Z68">
+        <v>-2.3170000000000002</v>
+      </c>
+      <c r="AA68">
+        <v>108.087</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>112.282</v>
+      </c>
+      <c r="D69">
+        <v>338.62</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>268.18099999999998</v>
+      </c>
+      <c r="G69">
+        <v>120.533</v>
+      </c>
+      <c r="H69">
+        <v>8532.3770000000004</v>
+      </c>
+      <c r="I69">
+        <v>111.38200000000001</v>
+      </c>
+      <c r="J69">
+        <v>5077.8860000000004</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>156.64599999999999</v>
+      </c>
+      <c r="O69">
+        <v>5610.683</v>
+      </c>
+      <c r="P69">
+        <v>5352.6689999999999</v>
+      </c>
+      <c r="Q69">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="R69">
+        <v>43830</v>
+      </c>
+      <c r="S69">
+        <v>4048</v>
+      </c>
+      <c r="T69">
+        <v>2921.694</v>
+      </c>
+      <c r="U69">
+        <v>65.745999999999995</v>
+      </c>
+      <c r="V69">
+        <v>163.22</v>
+      </c>
+      <c r="W69">
+        <v>-116.57899999999999</v>
+      </c>
+      <c r="X69">
+        <v>106.051</v>
+      </c>
+      <c r="Y69">
+        <v>274.78300000000002</v>
+      </c>
+      <c r="Z69">
+        <v>-164.09800000000001</v>
+      </c>
+      <c r="AA69">
+        <v>112.282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>108.179</v>
+      </c>
+      <c r="D70">
+        <v>337.495</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>240.52</v>
+      </c>
+      <c r="G70">
+        <v>97.93</v>
+      </c>
+      <c r="H70">
+        <v>8549.4860000000008</v>
+      </c>
+      <c r="I70">
+        <v>116.069</v>
+      </c>
+      <c r="J70">
+        <v>5239.7830000000004</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-192.50800000000001</v>
+      </c>
+      <c r="N70">
+        <v>161.78100000000001</v>
+      </c>
+      <c r="O70">
+        <v>5774.8559999999998</v>
+      </c>
+      <c r="P70">
+        <v>5509.9570000000003</v>
+      </c>
+      <c r="Q70">
+        <v>27.196999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43921</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>2774.63</v>
+      </c>
+      <c r="U70">
+        <v>93.296999999999997</v>
+      </c>
+      <c r="V70">
+        <v>189.256</v>
+      </c>
+      <c r="W70">
+        <v>-117.197</v>
+      </c>
+      <c r="X70">
+        <v>-101.486</v>
+      </c>
+      <c r="Y70">
+        <v>270.17399999999998</v>
+      </c>
+      <c r="Z70">
+        <v>-6.4409999999999998</v>
+      </c>
+      <c r="AA70">
+        <v>108.179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>102.911</v>
+      </c>
+      <c r="D71">
+        <v>332.29</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>236.392</v>
+      </c>
+      <c r="G71">
+        <v>61.750999999999998</v>
+      </c>
+      <c r="H71">
+        <v>8529.8940000000002</v>
+      </c>
+      <c r="I71">
+        <v>132.25700000000001</v>
+      </c>
+      <c r="J71">
+        <v>5200.5559999999996</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>178.357</v>
+      </c>
+      <c r="O71">
+        <v>5784.3760000000002</v>
+      </c>
+      <c r="P71">
+        <v>5472.4309999999996</v>
+      </c>
+      <c r="Q71">
+        <v>-36.179000000000002</v>
+      </c>
+      <c r="R71">
+        <v>44012</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2745.518</v>
+      </c>
+      <c r="U71">
+        <v>56.396999999999998</v>
+      </c>
+      <c r="V71">
+        <v>202.81700000000001</v>
+      </c>
+      <c r="W71">
+        <v>-116.318</v>
+      </c>
+      <c r="X71">
+        <v>-187.70099999999999</v>
+      </c>
+      <c r="Y71">
+        <v>271.875</v>
+      </c>
+      <c r="Z71">
+        <v>-3.1</v>
+      </c>
+      <c r="AA71">
+        <v>102.911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>114.633</v>
+      </c>
+      <c r="D72">
+        <v>348.62900000000002</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>249.11799999999999</v>
+      </c>
+      <c r="G72">
+        <v>80.573999999999998</v>
+      </c>
+      <c r="H72">
+        <v>8761.1039999999994</v>
+      </c>
+      <c r="I72">
+        <v>153.83799999999999</v>
+      </c>
+      <c r="J72">
+        <v>5388.7250000000004</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>200.36500000000001</v>
+      </c>
+      <c r="O72">
+        <v>5993.2820000000002</v>
+      </c>
+      <c r="P72">
+        <v>5655.8180000000002</v>
+      </c>
+      <c r="Q72">
+        <v>18.823</v>
+      </c>
+      <c r="R72">
+        <v>44104</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2767.8220000000001</v>
+      </c>
+      <c r="U72">
+        <v>74.802999999999997</v>
+      </c>
+      <c r="V72">
+        <v>191.19399999999999</v>
+      </c>
+      <c r="W72">
+        <v>-116.185</v>
+      </c>
+      <c r="X72">
+        <v>79.605999999999995</v>
+      </c>
+      <c r="Y72">
+        <v>267.09300000000002</v>
+      </c>
+      <c r="Z72">
+        <v>-4.0250000000000004</v>
+      </c>
+      <c r="AA72">
+        <v>114.633</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
         <v>156.05600000000001</v>
       </c>
-      <c r="D42">
+      <c r="D73">
         <v>360.15899999999999</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>293.77</v>
       </c>
-      <c r="G42">
+      <c r="G73">
         <v>421.81900000000002</v>
       </c>
-      <c r="H42">
+      <c r="H73">
         <v>9395.848</v>
       </c>
-      <c r="I42">
+      <c r="I73">
         <v>130.012</v>
       </c>
-      <c r="J42">
+      <c r="J73">
         <v>5382.6279999999997</v>
       </c>
-      <c r="K42">
+      <c r="K73">
         <v>462</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
         <v>669.98699999999997</v>
       </c>
-      <c r="O42">
+      <c r="O73">
         <v>6459.7240000000002</v>
       </c>
-      <c r="P42">
+      <c r="P73">
         <v>6163.116</v>
       </c>
-      <c r="Q42">
+      <c r="Q73">
         <v>47.435000000000002</v>
       </c>
-      <c r="R42">
+      <c r="R73">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S73">
         <v>4013</v>
       </c>
-      <c r="T42">
+      <c r="T73">
         <v>2936.1239999999998</v>
       </c>
-      <c r="U42">
+      <c r="U73">
         <v>109.124</v>
       </c>
-      <c r="V42">
+      <c r="V73">
         <v>187.965</v>
       </c>
-      <c r="W42">
+      <c r="W73">
         <v>-118.065</v>
       </c>
-      <c r="X42">
+      <c r="X73">
         <v>451.05200000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y73">
         <v>287.63900000000001</v>
       </c>
-      <c r="Z42">
+      <c r="Z73">
         <v>-350.85500000000002</v>
       </c>
-      <c r="AA42">
+      <c r="AA73">
         <v>156.05600000000001</v>
       </c>
     </row>
